--- a/Data/Alle_with_scores.xlsx
+++ b/Data/Alle_with_scores.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea\Dropbox\Uni\Informatik\Eval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrea\Dropbox\Uni\Charting New Realms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4616AD04-36FE-4A36-AB2F-5CC1380CE214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E3FEF0-6967-41C1-B612-D9BDF528B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12660" tabRatio="803" xr2:uid="{5A3A3390-AD50-4680-BBF4-5341B9A4109E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" tabRatio="803" activeTab="1" xr2:uid="{5A3A3390-AD50-4680-BBF4-5341B9A4109E}"/>
   </bookViews>
   <sheets>
     <sheet name="Alle Texte" sheetId="1" r:id="rId1"/>
-    <sheet name="Durchschnitte Tools" sheetId="2" r:id="rId2"/>
-    <sheet name="Nicht-Bibeltexte" sheetId="4" r:id="rId3"/>
-    <sheet name="Nur Bibeltexte" sheetId="3" r:id="rId4"/>
-    <sheet name="Bibel-DR" sheetId="5" r:id="rId5"/>
-    <sheet name="Bibel-ESV" sheetId="6" r:id="rId6"/>
-    <sheet name="Bibel-KJV" sheetId="7" r:id="rId7"/>
+    <sheet name="Retranslation sentences" sheetId="8" r:id="rId2"/>
+    <sheet name="Durchschnitte Tools" sheetId="2" r:id="rId3"/>
+    <sheet name="Nicht-Bibeltexte" sheetId="4" r:id="rId4"/>
+    <sheet name="Nur Bibeltexte" sheetId="3" r:id="rId5"/>
+    <sheet name="Bibel-DR" sheetId="5" r:id="rId6"/>
+    <sheet name="Bibel-ESV" sheetId="6" r:id="rId7"/>
+    <sheet name="Bibel-KJV" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="328">
   <si>
     <t>Source</t>
   </si>
@@ -1237,11 +1238,6 @@
 To execute upon them the judgment written: this honour have all his saints. Praise ye the Lord.</t>
   </si>
   <si>
-    <t>Psalm 23: 4-6
-(Psalm 22: 4-6 in the Vulgate)
-Douay-Rheims 1899 American Edition</t>
-  </si>
-  <si>
     <t>Nam etsi ambulavero in medio umbrae mortis,
 non timebo mala, quoniam tu mecum es.
 Virga tua, et baculus tuus,
@@ -1542,6 +1538,260 @@
   </si>
   <si>
     <t>Assessment of tone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ad haec verba illius revertitur quidam consul nomine Subardus cum trecentis militibus, et impetum fecit in eum: </t>
+  </si>
+  <si>
+    <t>cujus ictum Corineus praetenso clypeo excipiens, non est oblitus bipennis quam tenebat, sed erecta illa percussit cum in summitate galeae, percussumque, a summo usque ad imum in ambas partes dissecuit.</t>
+  </si>
+  <si>
+    <t>Sed et confestim irruens in caeteros, bipennem rotans, stragem acerrimam facit, et nunc hac nunc illac discurrens ictus recipere diffugit, nec hostes prosternere quiescit:</t>
+  </si>
+  <si>
+    <t>huic brachium cum manu amputat: illi scapulas a corpore separat: alii caput uno ictu truncat: alteri crura a summo dissecat.</t>
+  </si>
+  <si>
+    <t>Omnes in illum solum, et ipse solus in omnes irruebat.</t>
+  </si>
+  <si>
+    <t>Quod Brutus aspiciens, motus amore viri, accurrit cum una turma ut ei auxilium subvectaret.</t>
+  </si>
+  <si>
+    <t>Tunc oritur clamor inter diversas gentes, tunc crebri ictus inferuntur, tunc in utraque parte fit caedes durissima.</t>
+  </si>
+  <si>
+    <t>Nec mora, victoria potiuntur Troes, et regem Goffarium cum Pictavensibus suis in fugam propellunt.</t>
+  </si>
+  <si>
+    <t>Qui vix evadens, partes Galliarum adivit, ut a cognatis et notis succursum haberet.</t>
+  </si>
+  <si>
+    <t>Erant tunc temporis duodecim reges in Gallia, quorum regimine tota regio pari dignitate regebatur.</t>
+  </si>
+  <si>
+    <t>Qui benigne suscipientes eum, promittunt sese unanimiter expulsuros ex finibus Aquitaniae externam gentem quae advenerat.</t>
+  </si>
+  <si>
+    <t>Quare non in vulva mortuus sum?</t>
+  </si>
+  <si>
+    <t>egressus ex utero non statim perii?</t>
+  </si>
+  <si>
+    <t>Quare exceptus genibus?</t>
+  </si>
+  <si>
+    <t>cur lactatus uberibus?</t>
+  </si>
+  <si>
+    <t>Nunc enim dormiens silerem,
+et somno meo requiescerem</t>
+  </si>
+  <si>
+    <t>Psalm 88: 4-8
+Douay-Rheims 1899 American Edition
+(Psalm 87: 4-8 in the Vulgate)</t>
+  </si>
+  <si>
+    <t>Psalm 22: 4-6
+Douay-Rheims 1899 American Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A certain consul named Subardus returns to these words with three hundred soldiers, and made an attack on him.
+</t>
+  </si>
+  <si>
+    <t>Whose strike Corineus, receiving with an extended shield, did not forget the battle-axe which he held, but with that raised he struck at the top of the helmet, and having struck, he split it from the top to the bottom into both parts.</t>
+  </si>
+  <si>
+    <t>But also, immediately rushing into the rest, spinning the battle-axe, he makes the fiercest slaughter, and now running this way, now that way, he avoids receiving blows, nor does he cease to overthrow the enemies.</t>
+  </si>
+  <si>
+    <t>He cuts off the arm with the hand: he separates the shoulders from the body: another he strikes the head with one blow: to another he cuts off the legs from the top.</t>
+  </si>
+  <si>
+    <t>All rushed upon him alone, and he alone rushed upon all.</t>
+  </si>
+  <si>
+    <t>Which, looking at it, Brutus, moved by the love of the man, runs with one troop to bring him aid.</t>
+  </si>
+  <si>
+    <t>Then a shout rises among the different peoples, then frequent blows are struck, then on both sides the harshest slaughter takes place.</t>
+  </si>
+  <si>
+    <t>Nor delay, the Trojans obtain victory, and they drive King Goffarus with his people the Pictavi into flight.</t>
+  </si>
+  <si>
+    <t>He, barely escaping, went to the parts of Gaul, so that he might have help from his relatives and acquaintances.</t>
+  </si>
+  <si>
+    <t>At that time, there were twelve kings in Gaul, whose rule governed the whole region with equal dignity.</t>
+  </si>
+  <si>
+    <t>They, kindly receiving him, promise that they will unanimously drive out from the borders of Aquitania the foreign people who had come.</t>
+  </si>
+  <si>
+    <t>A certain consul named Subardus returns to these words with three hundred soldiers, and made an attack on him. Whose strike Corineus, receiving with an extended shield, did not forget the battle-axe which he held, but with that raised he struck at the top of the helmet, and having struck, he split it from the top to the bottom into both parts. But also, immediately rushing into the rest, spinning the battle-axe, he makes the fiercest slaughter, and now running this way, now that way, he avoids receiving blows, nor does he cease to overthrow the enemies. He cuts off the arm with the hand: he separates the shoulders from the body: another he strikes the head with one blow: to another he cuts off the legs from the top. All rushed upon him alone, and he alone rushed upon all. Which, looking at it, Brutus, moved by the love of the man, runs with one troop to bring him aid. Then a shout rises among the different peoples, then frequent blows are struck, then on both sides the harshest slaughter takes place. Nor delay, the Trojans obtain victory, and they drive King Goffarus with his people the Pictavi into flight. He, barely escaping, went to the parts of Gaul, so that he might have help from his relatives and acquaintances. At that time, there were twelve kings in Gaul, whose rule governed the whole region with equal dignity. They, kindly receiving him, promise that they will unanimously drive out from the borders of Aquitania the foreign people who had come.</t>
+  </si>
+  <si>
+    <t>At these words of his, a certain consul named Subardus returned with three hundred soldiers, and made an attack on him.</t>
+  </si>
+  <si>
+    <t>Corinius receiving the blow with his shield held out, did not forget the bipenny which he held, but smote it erect when it was on the top of the helmet, and struck it, and cut it in two parts from the top to the bottom.</t>
+  </si>
+  <si>
+    <t>But immediately he rushes upon the others, whirling his bipene, and makes a most violent slaughter, and now running this way and that he flees to receive the blows, and does not rest to prostrate his enemies.</t>
+  </si>
+  <si>
+    <t>he cuts off the arm of this one with his hand: he separates the shoulders from the body: another cuts off the head with one blow: he cuts off the legs of another from the top.</t>
+  </si>
+  <si>
+    <t>All rushed upon him alone, and he alone upon all.</t>
+  </si>
+  <si>
+    <t>When Brutus saw this, moved with love for the man, he ran with a company to help him.</t>
+  </si>
+  <si>
+    <t>Then there arose a cry among the different nations, then frequent blows were inflicted, then the most severe slaughter took place on both sides.</t>
+  </si>
+  <si>
+    <t>Without delay, the Trojans were victorious, and King Goffarius and his Pictavens were put to flight.</t>
+  </si>
+  <si>
+    <t>He, scarcely escaping, went to the parts of Gaul, that he might be helped by his relatives and acquaintances.</t>
+  </si>
+  <si>
+    <t>There were at that time twelve kings in Gaul, under whose rule the whole country was governed with equal dignity.</t>
+  </si>
+  <si>
+    <t>Those who kindly received him promised to expel with one accord from the borders of Aquitaine the foreign nation that had arrived.</t>
+  </si>
+  <si>
+    <t>To these words of him returns a certain consul by name Subardus with three hundred soldiers, and an attack he made on him:</t>
+  </si>
+  <si>
+    <t>Whose blow Corineus, having received with a stretched-out shield, is not forgetful of the double-axe which he held, but having erected that, he struck with it on the summit of the helmet, and having struck, he cut through in both directions, from the top to the bottom.</t>
+  </si>
+  <si>
+    <t>But also immediately rushing into the others, whirling the double-axe, he makes a very fierce slaughter, and now here now there running about he avoids receiving blows, nor does he cease to overthrow the enemies:</t>
+  </si>
+  <si>
+    <t>To this one he amputates the arm with the hand: to that one he separates the shoulders from the body: another he decapitates with one blow: to another he dissects the legs from the top.</t>
+  </si>
+  <si>
+    <t>All into him alone, and he alone into all rushed.</t>
+  </si>
+  <si>
+    <t>Which Brutus, looking at, moved by love of the man, runs up with one troop to bring help to him.</t>
+  </si>
+  <si>
+    <t>Then arises a shout among the diverse peoples, then frequent blows are inflicted, then on both sides a very hard slaughter happens.</t>
+  </si>
+  <si>
+    <t>Nor delay, the Trojans seize victory, and drive King Goffarius with his Pictavian people into flight.</t>
+  </si>
+  <si>
+    <t>Who barely escaping, approached the parts of Gaul, so that from relatives and acquaintances he might have help.</t>
+  </si>
+  <si>
+    <t>Were then at that time twelve kings in Gaul, by whose rule the whole region was ruled with equal dignity.</t>
+  </si>
+  <si>
+    <t>Who, having received him kindly, promise themselves unanimously to expel from the boundaries of Aquitaine the foreign people which had arrived.</t>
+  </si>
+  <si>
+    <t>Then the king returns to His house, A consul named Subardus, with three hundred soldiers, and attacked him:</t>
+  </si>
+  <si>
+    <t>Whose impact Corineus pretended to be welcoming the shield was not forgotten by the two-legged man he was holding, but alert she struck when he slapped on the top of the helmet, slapping from top to bottom in both directions.</t>
+  </si>
+  <si>
+    <t>But immediately, rushing into the rest, rotating the two-year-old, causing a very sharp havoc, and now running off there this time, he scatters back and forth to receive shots, and doesn't stop the enemy from rushing forward:</t>
+  </si>
+  <si>
+    <t>when cutting off this arm with a hand, they separate the shoulders from the body: others stunt the head with one stroke: the other dissects the legs from the top.</t>
+  </si>
+  <si>
+    <t>All in him alone, and he rushed all alone.</t>
+  </si>
+  <si>
+    <t>What Brutus was looking at, a man's emotional love, ran out with one team to help him transport him.</t>
+  </si>
+  <si>
+    <t>Then a cry arises between different nations, then frequent blows are inflicted, then the slaughter takes place on both sides very hard.</t>
+  </si>
+  <si>
+    <t>No delay, victoria and The Troes take over The King Of Goffario with Their Tattoos on their flight.</t>
+  </si>
+  <si>
+    <t>Who was barely dodging, attended the French parties to get help from relatives and acquaintances.</t>
+  </si>
+  <si>
+    <t>There were at that time twelve kings in France, whose government ruled the entire area with equal dignity.</t>
+  </si>
+  <si>
+    <t>Those who welcomed him kindly promise to retire unanimously to expel the foreign nation that had arrived from The border With Aquitaine.</t>
+  </si>
+  <si>
+    <t>At these words of his, a certain consul named Subardus returned with three hundred soldiers, and made an attack on him.
+Corinius receiving the blow with his shield held out, did not forget the bipenny which he held, but smote it erect when it was on the top of the helmet, and struck it, and cut it in two parts from the top to the bottom.
+But immediately he rushes upon the others, whirling his bipene, and makes a most violent slaughter, and now running this way and that he flees to receive the blows, and does not rest to prostrate his enemies.
+he cuts off the arm of this one with his hand: he separates the shoulders from the body: another cuts off the head with one blow: he cuts off the legs of another from the top.
+All rushed upon him alone, and he alone upon all.
+When Brutus saw this, moved with love for the man, he ran with a company to help him.
+Then there arose a cry among the different nations, then frequent blows were inflicted, then the most severe slaughter took place on both sides.
+Without delay, the Trojans were victorious, and King Goffarius and his Pictavens were put to flight.
+He, scarcely escaping, went to the parts of Gaul, that he might be helped by his relatives and acquaintances.
+There were at that time twelve kings in Gaul, under whose rule the whole country was governed with equal dignity.
+Those who kindly received him promised to expel with one accord from the borders of Aquitaine the foreign nation that had arrived.</t>
+  </si>
+  <si>
+    <t>To these words of him returns a certain consul by name Subardus with three hundred soldiers, and an attack he made on him:
+Whose blow Corineus, having received with a stretched-out shield, is not forgetful of the double-axe which he held, but having erected that, he struck with it on the summit of the helmet, and having struck, he cut through in both directions, from the top to the bottom.
+But also immediately rushing into the others, whirling the double-axe, he makes a very fierce slaughter, and now here now there running about he avoids receiving blows, nor does he cease to overthrow the enemies:
+To this one he amputates the arm with the hand: to that one he separates the shoulders from the body: another he decapitates with one blow: to another he dissects the legs from the top.
+All into him alone, and he alone into all rushed.
+Which Brutus, looking at, moved by love of the man, runs up with one troop to bring help to him.
+Then arises a shout among the diverse peoples, then frequent blows are inflicted, then on both sides a very hard slaughter happens.
+Nor delay, the Trojans seize victory, and drive King Goffarius with his Pictavian people into flight.
+Who barely escaping, approached the parts of Gaul, so that from relatives and acquaintances he might have help.
+Were then at that time twelve kings in Gaul, by whose rule the whole region was ruled with equal dignity.
+Who, having received him kindly, promise themselves unanimously to expel from the boundaries of Aquitaine the foreign people which had arrived.</t>
+  </si>
+  <si>
+    <t>Then the king returns to His house, A consul named Subardus, with three hundred soldiers, and attacked him:
+Whose impact Corineus pretended to be welcoming the shield was not forgotten by the two-legged man he was holding, but alert she struck when he slapped on the top of the helmet, slapping from top to bottom in both directions.
+But immediately, rushing into the rest, rotating the two-year-old, causing a very sharp havoc, and now running off there this time, he scatters back and forth to receive shots, and doesn't stop the enemy from rushing forward:
+when cutting off this arm with a hand, they separate the shoulders from the body: others stunt the head with one stroke: the other dissects the legs from the top.
+All in him alone, and he rushed all alone.
+What Brutus was looking at, a man's emotional love, ran out with one team to help him transport him.
+Then a cry arises between different nations, then frequent blows are inflicted, then the slaughter takes place on both sides very hard.
+No delay, victoria and The Troes take over The King Of Goffario with Their Tattoos on their flight.
+Who was barely dodging, attended the French parties to get help from relatives and acquaintances.
+There were at that time twelve kings in France, whose government ruled the entire area with equal dignity.
+Those who welcomed him kindly promise to retire unanimously to expel the foreign nation that had arrived from The border With Aquitaine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nam etiam sine illius suffimentis expiati sumus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At uero scelerum in homines atque in deos inpietatum nulla expiatio est. </t>
+  </si>
+  <si>
+    <t>Itaque poenas luunt, non tam iudiciis—quae quondam nusquam erant, hodie multifariam nulla sunt, ubi sunt tamen, persaepe falsa sunt—at eos agitant insectanturque furiae, non ardentibus taedis sicut in fabulis, sed angore conscientiae fraudisque cruciatu.</t>
+  </si>
+  <si>
+    <t>Quodsi homines ab iniuria poena, non natura arcere deberet, quaenam sollicitudo uexaret impios sublato suppliciorum metu?</t>
+  </si>
+  <si>
+    <t>Quorum tamen nemo tam audax umquam fuit, quin aut abnueret a se commissum esse facinus, aut iusti sui doloris causam aliquam fingeret, defensionemque facinoris a naturae iure aliquo quaereret.</t>
+  </si>
+  <si>
+    <t>Quae si appellare audent impii, quo tandem studio colentur a bonis?</t>
+  </si>
+  <si>
+    <t>Quodsi poena, si metus supplicii, non ipsa turpitudo deterret ab iniuriosa facinerosaque uita, nemo est iniustus, at incauti potius habendi sunt inprobi.</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +2127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2001,6 +2251,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2046,7 +2305,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2061,6 +2320,32 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2106,7 +2391,67 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2584,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6980F06-D595-40AA-846E-FF330C2E1B28}">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y45" sqref="Y45:Y50"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2597,7 +2942,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2669,174 +3014,174 @@
         <v>22</v>
       </c>
       <c r="Y1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z1" t="s">
         <v>236</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="I2" s="1">
-        <v>3.06</v>
+        <v>6.71</v>
       </c>
       <c r="J2" s="1">
-        <v>14.13</v>
+        <v>30.77</v>
       </c>
       <c r="K2" s="1">
-        <v>27.66</v>
+        <v>45.31</v>
       </c>
       <c r="L2" s="4">
-        <v>16.559999999999999</v>
+        <v>32.72</v>
       </c>
       <c r="M2" s="1">
-        <v>1.94</v>
+        <v>7.39</v>
       </c>
       <c r="N2" s="1">
-        <v>14.44</v>
+        <v>29.82</v>
       </c>
       <c r="O2" s="1">
-        <v>26.9</v>
+        <v>44.61</v>
       </c>
       <c r="P2" s="4">
-        <v>15.28</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.79</v>
+        <v>4.87</v>
       </c>
       <c r="R2" s="1">
-        <v>11.76</v>
+        <v>26.93</v>
       </c>
       <c r="S2" s="1">
-        <v>27.75</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="T2" s="4">
-        <v>16.04</v>
+        <v>28.25</v>
       </c>
       <c r="U2">
-        <v>1.65</v>
+        <v>3.63</v>
       </c>
       <c r="V2" s="1">
-        <v>13.02</v>
+        <v>25.45</v>
       </c>
       <c r="W2" s="1">
-        <v>23.75</v>
+        <v>43.39</v>
       </c>
       <c r="X2" s="4">
-        <v>14.89</v>
+        <v>34.46</v>
       </c>
       <c r="Y2" s="2">
         <f>AVERAGE(I2:X2)</f>
-        <v>14.47625</v>
+        <v>27.327499999999993</v>
       </c>
       <c r="Z2" s="2">
         <f>MEDIAN(I2:X2)</f>
-        <v>14.664999999999999</v>
+        <v>30.295000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="I3" s="1">
-        <v>1.83</v>
+        <v>12.03</v>
       </c>
       <c r="J3" s="1">
-        <v>18.059999999999999</v>
+        <v>44.21</v>
       </c>
       <c r="K3" s="1">
-        <v>27.56</v>
+        <v>36.79</v>
       </c>
       <c r="L3" s="4">
-        <v>21.45</v>
+        <v>43.81</v>
       </c>
       <c r="M3" s="1">
-        <v>1.81</v>
+        <v>11.84</v>
       </c>
       <c r="N3" s="1">
-        <v>16.18</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="O3" s="1">
-        <v>27.06</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="P3" s="4">
-        <v>20.3</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.0299999999999998</v>
+        <v>5.71</v>
       </c>
       <c r="R3" s="1">
-        <v>16.670000000000002</v>
+        <v>41.3</v>
       </c>
       <c r="S3" s="1">
-        <v>26.47</v>
+        <v>33.32</v>
       </c>
       <c r="T3" s="4">
-        <v>18.13</v>
+        <v>38.28</v>
       </c>
       <c r="U3">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="V3" s="1">
-        <v>17.14</v>
+        <v>28.21</v>
       </c>
       <c r="W3" s="1">
-        <v>26.25</v>
+        <v>19.47</v>
       </c>
       <c r="X3" s="4">
-        <v>22.32</v>
+        <v>19.05</v>
       </c>
       <c r="Y3" s="2">
         <f>AVERAGE(I3:X3)</f>
-        <v>16.546250000000001</v>
+        <v>27.544374999999999</v>
       </c>
       <c r="Z3" s="2">
         <f>MEDIAN(I3:X3)</f>
-        <v>18.094999999999999</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
@@ -2844,901 +3189,901 @@
         <v>252</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="I4" s="1">
-        <v>6.71</v>
+        <v>10.26</v>
       </c>
       <c r="J4" s="1">
-        <v>30.77</v>
+        <v>41.18</v>
       </c>
       <c r="K4" s="1">
-        <v>45.31</v>
+        <v>34.42</v>
       </c>
       <c r="L4" s="4">
-        <v>32.72</v>
+        <v>42.68</v>
       </c>
       <c r="M4" s="1">
-        <v>7.39</v>
+        <v>15.7</v>
       </c>
       <c r="N4" s="1">
-        <v>29.82</v>
+        <v>47.92</v>
       </c>
       <c r="O4" s="1">
-        <v>44.61</v>
+        <v>36.69</v>
       </c>
       <c r="P4" s="4">
-        <v>36.770000000000003</v>
+        <v>35.65</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.87</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="R4" s="1">
-        <v>26.93</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>36.159999999999997</v>
+        <v>31.23</v>
       </c>
       <c r="T4" s="4">
-        <v>28.25</v>
+        <v>30.95</v>
       </c>
       <c r="U4">
-        <v>3.63</v>
+        <v>4.17</v>
       </c>
       <c r="V4" s="1">
-        <v>25.45</v>
+        <v>32.94</v>
       </c>
       <c r="W4" s="1">
-        <v>43.39</v>
+        <v>22.23</v>
       </c>
       <c r="X4" s="4">
-        <v>34.46</v>
+        <v>25.69</v>
       </c>
       <c r="Y4" s="2">
         <f>AVERAGE(I4:X4)</f>
-        <v>27.327499999999993</v>
+        <v>28.436249999999998</v>
       </c>
       <c r="Z4" s="2">
         <f>MEDIAN(I4:X4)</f>
-        <v>30.295000000000002</v>
+        <v>32.085000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="I5" s="1">
-        <v>12.03</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="J5" s="1">
-        <v>44.21</v>
+        <v>31.08</v>
       </c>
       <c r="K5" s="1">
-        <v>36.79</v>
+        <v>45.15</v>
       </c>
       <c r="L5" s="4">
-        <v>43.81</v>
+        <v>41.11</v>
       </c>
       <c r="M5" s="1">
-        <v>11.84</v>
+        <v>7.09</v>
       </c>
       <c r="N5" s="1">
-        <v>38.200000000000003</v>
+        <v>29.47</v>
       </c>
       <c r="O5" s="1">
-        <v>33.020000000000003</v>
+        <v>42.78</v>
       </c>
       <c r="P5" s="4">
-        <v>33.369999999999997</v>
+        <v>38.57</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.71</v>
+        <v>7.92</v>
       </c>
       <c r="R5" s="1">
-        <v>41.3</v>
+        <v>27.31</v>
       </c>
       <c r="S5" s="1">
-        <v>33.32</v>
+        <v>42.85</v>
       </c>
       <c r="T5" s="4">
-        <v>38.28</v>
+        <v>34.22</v>
       </c>
       <c r="U5">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="V5" s="1">
-        <v>28.21</v>
+        <v>29.53</v>
       </c>
       <c r="W5" s="1">
-        <v>19.47</v>
+        <v>43.07</v>
       </c>
       <c r="X5" s="4">
-        <v>19.05</v>
+        <v>38.42</v>
       </c>
       <c r="Y5" s="2">
         <f>AVERAGE(I5:X5)</f>
-        <v>27.544374999999999</v>
+        <v>29.352499999999999</v>
       </c>
       <c r="Z5" s="2">
         <f>MEDIAN(I5:X5)</f>
-        <v>33.17</v>
+        <v>32.65</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="I6" s="1">
-        <v>10.26</v>
+        <v>15.67</v>
       </c>
       <c r="J6" s="1">
-        <v>41.18</v>
+        <v>45.05</v>
       </c>
       <c r="K6" s="1">
-        <v>34.42</v>
+        <v>46.9</v>
       </c>
       <c r="L6" s="4">
-        <v>42.68</v>
+        <v>39.82</v>
       </c>
       <c r="M6" s="1">
-        <v>15.7</v>
+        <v>13.17</v>
       </c>
       <c r="N6" s="1">
-        <v>47.92</v>
+        <v>41.82</v>
       </c>
       <c r="O6" s="1">
-        <v>36.69</v>
+        <v>44.78</v>
       </c>
       <c r="P6" s="4">
-        <v>35.65</v>
+        <v>43.92</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.8899999999999997</v>
+        <v>8.08</v>
       </c>
       <c r="R6" s="1">
-        <v>38.380000000000003</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>31.23</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="T6" s="4">
-        <v>30.95</v>
+        <v>26.92</v>
       </c>
       <c r="U6">
-        <v>4.17</v>
+        <v>17.07</v>
       </c>
       <c r="V6" s="1">
-        <v>32.94</v>
+        <v>36.89</v>
       </c>
       <c r="W6" s="1">
-        <v>22.23</v>
+        <v>38.36</v>
       </c>
       <c r="X6" s="4">
-        <v>25.69</v>
+        <v>34.71</v>
       </c>
       <c r="Y6" s="2">
         <f>AVERAGE(I6:X6)</f>
-        <v>28.436249999999998</v>
+        <v>32.748750000000001</v>
       </c>
       <c r="Z6" s="2">
         <f>MEDIAN(I6:X6)</f>
-        <v>32.085000000000001</v>
+        <v>37.545000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="I7" s="1">
-        <v>8.3699999999999992</v>
+        <v>16.62</v>
       </c>
       <c r="J7" s="1">
-        <v>31.08</v>
+        <v>46.93</v>
       </c>
       <c r="K7" s="1">
-        <v>45.15</v>
+        <v>43.23</v>
       </c>
       <c r="L7" s="4">
-        <v>41.11</v>
+        <v>48.39</v>
       </c>
       <c r="M7" s="1">
-        <v>7.09</v>
+        <v>7.28</v>
       </c>
       <c r="N7" s="1">
-        <v>29.47</v>
+        <v>45.71</v>
       </c>
       <c r="O7" s="1">
-        <v>42.78</v>
+        <v>40.86</v>
       </c>
       <c r="P7" s="4">
-        <v>38.57</v>
+        <v>41.8</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.92</v>
+        <v>6.17</v>
       </c>
       <c r="R7" s="1">
-        <v>27.31</v>
+        <v>38.46</v>
       </c>
       <c r="S7" s="1">
-        <v>42.85</v>
+        <v>37.090000000000003</v>
       </c>
       <c r="T7" s="4">
-        <v>34.22</v>
+        <v>37.15</v>
       </c>
       <c r="U7">
-        <v>2.7</v>
+        <v>7.86</v>
       </c>
       <c r="V7" s="1">
-        <v>29.53</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="W7" s="1">
-        <v>43.07</v>
+        <v>36.26</v>
       </c>
       <c r="X7" s="4">
-        <v>38.42</v>
+        <v>37.35</v>
       </c>
       <c r="Y7" s="2">
         <f>AVERAGE(I7:X7)</f>
-        <v>29.352499999999999</v>
+        <v>33.06</v>
       </c>
       <c r="Z7" s="2">
         <f>MEDIAN(I7:X7)</f>
-        <v>32.65</v>
+        <v>37.575000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="I8" s="1">
-        <v>15.67</v>
+        <v>15.19</v>
       </c>
       <c r="J8" s="1">
-        <v>45.05</v>
+        <v>45.07</v>
       </c>
       <c r="K8" s="1">
-        <v>46.9</v>
+        <v>42.65</v>
       </c>
       <c r="L8" s="4">
-        <v>39.82</v>
+        <v>45.39</v>
       </c>
       <c r="M8" s="1">
-        <v>13.17</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="N8" s="1">
-        <v>41.82</v>
+        <v>42.86</v>
       </c>
       <c r="O8" s="1">
-        <v>44.78</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="P8" s="4">
-        <v>43.92</v>
+        <v>40.94</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.08</v>
+        <v>18.95</v>
       </c>
       <c r="R8" s="1">
-        <v>38.200000000000003</v>
+        <v>52.86</v>
       </c>
       <c r="S8" s="1">
-        <v>32.619999999999997</v>
+        <v>44.82</v>
       </c>
       <c r="T8" s="4">
-        <v>26.92</v>
+        <v>47.98</v>
       </c>
       <c r="U8">
-        <v>17.07</v>
+        <v>10.51</v>
       </c>
       <c r="V8" s="1">
-        <v>36.89</v>
+        <v>41.18</v>
       </c>
       <c r="W8" s="1">
-        <v>38.36</v>
+        <v>37.43</v>
       </c>
       <c r="X8" s="4">
-        <v>34.71</v>
+        <v>38.29</v>
       </c>
       <c r="Y8" s="2">
         <f>AVERAGE(I8:X8)</f>
-        <v>32.748750000000001</v>
+        <v>35.846249999999998</v>
       </c>
       <c r="Z8" s="2">
         <f>MEDIAN(I8:X8)</f>
-        <v>37.545000000000002</v>
+        <v>41.06</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="I9" s="1">
-        <v>16.62</v>
+        <v>21.93</v>
       </c>
       <c r="J9" s="1">
-        <v>46.93</v>
+        <v>49.25</v>
       </c>
       <c r="K9" s="1">
-        <v>43.23</v>
+        <v>53.83</v>
       </c>
       <c r="L9" s="4">
-        <v>48.39</v>
+        <v>47.42</v>
       </c>
       <c r="M9" s="1">
-        <v>7.28</v>
+        <v>20.49</v>
       </c>
       <c r="N9" s="1">
-        <v>45.71</v>
+        <v>44.28</v>
       </c>
       <c r="O9" s="1">
-        <v>40.86</v>
+        <v>54.66</v>
       </c>
       <c r="P9" s="4">
-        <v>41.8</v>
+        <v>39.159999999999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.17</v>
+        <v>9.19</v>
       </c>
       <c r="R9" s="1">
-        <v>38.46</v>
+        <v>37.93</v>
       </c>
       <c r="S9" s="1">
-        <v>37.090000000000003</v>
+        <v>41.96</v>
       </c>
       <c r="T9" s="4">
-        <v>37.15</v>
+        <v>27.28</v>
       </c>
       <c r="U9">
-        <v>7.86</v>
+        <v>11.97</v>
       </c>
       <c r="V9" s="1">
-        <v>37.799999999999997</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>36.26</v>
+        <v>46.85</v>
       </c>
       <c r="X9" s="4">
-        <v>37.35</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="Y9" s="2">
         <f>AVERAGE(I9:X9)</f>
-        <v>33.06</v>
+        <v>35.914375</v>
       </c>
       <c r="Z9" s="2">
         <f>MEDIAN(I9:X9)</f>
-        <v>37.575000000000003</v>
+        <v>38.545000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="I10" s="1">
-        <v>15.19</v>
+        <v>18.09</v>
       </c>
       <c r="J10" s="1">
-        <v>45.07</v>
+        <v>48.76</v>
       </c>
       <c r="K10" s="1">
-        <v>42.65</v>
+        <v>50.44</v>
       </c>
       <c r="L10" s="4">
-        <v>45.39</v>
+        <v>43.36</v>
       </c>
       <c r="M10" s="1">
-        <v>9.7200000000000006</v>
+        <v>16.34</v>
       </c>
       <c r="N10" s="1">
-        <v>42.86</v>
+        <v>38.5</v>
       </c>
       <c r="O10" s="1">
-        <v>39.700000000000003</v>
+        <v>40.76</v>
       </c>
       <c r="P10" s="4">
-        <v>40.94</v>
+        <v>35.39</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.95</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>52.86</v>
+        <v>45.85</v>
       </c>
       <c r="S10" s="1">
-        <v>44.82</v>
+        <v>52.04</v>
       </c>
       <c r="T10" s="4">
-        <v>47.98</v>
+        <v>44.88</v>
       </c>
       <c r="U10">
-        <v>10.51</v>
+        <v>6.43</v>
       </c>
       <c r="V10" s="1">
-        <v>41.18</v>
+        <v>36.36</v>
       </c>
       <c r="W10" s="1">
-        <v>37.43</v>
+        <v>44.28</v>
       </c>
       <c r="X10" s="4">
-        <v>38.29</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="Y10" s="2">
         <f>AVERAGE(I10:X10)</f>
-        <v>35.846249999999998</v>
+        <v>36.373125000000002</v>
       </c>
       <c r="Z10" s="2">
         <f>MEDIAN(I10:X10)</f>
-        <v>41.06</v>
+        <v>40.584999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I11" s="1">
-        <v>21.93</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>49.25</v>
+        <v>40.93</v>
       </c>
       <c r="K11" s="1">
-        <v>53.83</v>
+        <v>54.77</v>
       </c>
       <c r="L11" s="4">
-        <v>47.42</v>
+        <v>46.57</v>
       </c>
       <c r="M11" s="1">
-        <v>20.49</v>
+        <v>15.98</v>
       </c>
       <c r="N11" s="1">
-        <v>44.28</v>
+        <v>45.39</v>
       </c>
       <c r="O11" s="1">
-        <v>54.66</v>
+        <v>54.58</v>
       </c>
       <c r="P11" s="4">
-        <v>39.159999999999997</v>
+        <v>47.53</v>
       </c>
       <c r="Q11" s="1">
+        <v>11.73</v>
+      </c>
+      <c r="R11" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>47.85</v>
+      </c>
+      <c r="T11" s="4">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="U11">
         <v>9.19</v>
       </c>
-      <c r="R11" s="1">
-        <v>37.93</v>
-      </c>
-      <c r="S11" s="1">
-        <v>41.96</v>
-      </c>
-      <c r="T11" s="4">
-        <v>27.28</v>
-      </c>
-      <c r="U11">
-        <v>11.97</v>
-      </c>
       <c r="V11" s="1">
-        <v>35.380000000000003</v>
+        <v>37.29</v>
       </c>
       <c r="W11" s="1">
-        <v>46.85</v>
+        <v>48.97</v>
       </c>
       <c r="X11" s="4">
-        <v>33.049999999999997</v>
+        <v>38.21</v>
       </c>
       <c r="Y11" s="2">
         <f>AVERAGE(I11:X11)</f>
-        <v>35.914375</v>
+        <v>36.690000000000005</v>
       </c>
       <c r="Z11" s="2">
         <f>MEDIAN(I11:X11)</f>
-        <v>38.545000000000002</v>
+        <v>40.015000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="I12" s="1">
-        <v>18.09</v>
+        <v>21.1</v>
       </c>
       <c r="J12" s="1">
-        <v>48.76</v>
+        <v>47.83</v>
       </c>
       <c r="K12" s="1">
-        <v>50.44</v>
+        <v>44.62</v>
       </c>
       <c r="L12" s="4">
-        <v>43.36</v>
+        <v>52.65</v>
       </c>
       <c r="M12" s="1">
-        <v>16.34</v>
+        <v>9.36</v>
       </c>
       <c r="N12" s="1">
-        <v>38.5</v>
+        <v>48.89</v>
       </c>
       <c r="O12" s="1">
-        <v>40.76</v>
+        <v>42.44</v>
       </c>
       <c r="P12" s="4">
-        <v>35.39</v>
+        <v>47.12</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.079999999999998</v>
+        <v>11.84</v>
       </c>
       <c r="R12" s="1">
-        <v>45.85</v>
+        <v>41.71</v>
       </c>
       <c r="S12" s="1">
-        <v>52.04</v>
+        <v>40.869999999999997</v>
       </c>
       <c r="T12" s="4">
-        <v>44.88</v>
+        <v>46.66</v>
       </c>
       <c r="U12">
-        <v>6.43</v>
+        <v>11.73</v>
       </c>
       <c r="V12" s="1">
-        <v>36.36</v>
+        <v>41.42</v>
       </c>
       <c r="W12" s="1">
-        <v>44.28</v>
+        <v>37.89</v>
       </c>
       <c r="X12" s="4">
-        <v>40.409999999999997</v>
+        <v>43.8</v>
       </c>
       <c r="Y12" s="2">
         <f>AVERAGE(I12:X12)</f>
-        <v>36.373125000000002</v>
+        <v>36.870624999999997</v>
       </c>
       <c r="Z12" s="2">
         <f>MEDIAN(I12:X12)</f>
-        <v>40.584999999999994</v>
+        <v>42.075000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="I13" s="1">
-        <v>16.899999999999999</v>
+        <v>13.45</v>
       </c>
       <c r="J13" s="1">
-        <v>40.93</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="K13" s="1">
-        <v>54.77</v>
+        <v>41.7</v>
       </c>
       <c r="L13" s="4">
-        <v>46.57</v>
+        <v>34.46</v>
       </c>
       <c r="M13" s="1">
-        <v>15.98</v>
+        <v>16.12</v>
       </c>
       <c r="N13" s="1">
-        <v>45.39</v>
+        <v>47.62</v>
       </c>
       <c r="O13" s="1">
-        <v>54.58</v>
+        <v>44.65</v>
       </c>
       <c r="P13" s="4">
-        <v>47.53</v>
+        <v>36.29</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.73</v>
+        <v>34.39</v>
       </c>
       <c r="R13" s="1">
-        <v>39.1</v>
+        <v>63.95</v>
       </c>
       <c r="S13" s="1">
-        <v>47.85</v>
+        <v>56.23</v>
       </c>
       <c r="T13" s="4">
-        <v>32.049999999999997</v>
+        <v>56.34</v>
       </c>
       <c r="U13">
-        <v>9.19</v>
+        <v>10.98</v>
       </c>
       <c r="V13" s="1">
-        <v>37.29</v>
+        <v>46.15</v>
       </c>
       <c r="W13" s="1">
-        <v>48.97</v>
+        <v>41.56</v>
       </c>
       <c r="X13" s="4">
-        <v>38.21</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="Y13" s="2">
         <f>AVERAGE(I13:X13)</f>
-        <v>36.690000000000005</v>
+        <v>38.680625000000006</v>
       </c>
       <c r="Z13" s="2">
         <f>MEDIAN(I13:X13)</f>
-        <v>40.015000000000001</v>
+        <v>40.915000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I14" s="1">
-        <v>21.1</v>
+        <v>17.59</v>
       </c>
       <c r="J14" s="1">
-        <v>47.83</v>
+        <v>52.73</v>
       </c>
       <c r="K14" s="1">
-        <v>44.62</v>
+        <v>49.91</v>
       </c>
       <c r="L14" s="4">
-        <v>52.65</v>
+        <v>47.73</v>
       </c>
       <c r="M14" s="1">
-        <v>9.36</v>
+        <v>10.29</v>
       </c>
       <c r="N14" s="1">
-        <v>48.89</v>
+        <v>40.74</v>
       </c>
       <c r="O14" s="1">
-        <v>42.44</v>
+        <v>40.71</v>
       </c>
       <c r="P14" s="4">
-        <v>47.12</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.84</v>
+        <v>22.79</v>
       </c>
       <c r="R14" s="1">
-        <v>41.71</v>
+        <v>55.56</v>
       </c>
       <c r="S14" s="1">
-        <v>40.869999999999997</v>
+        <v>52.2</v>
       </c>
       <c r="T14" s="4">
-        <v>46.66</v>
+        <v>51.52</v>
       </c>
       <c r="U14">
-        <v>11.73</v>
+        <v>13.61</v>
       </c>
       <c r="V14" s="1">
-        <v>41.42</v>
+        <v>46.73</v>
       </c>
       <c r="W14" s="1">
-        <v>37.89</v>
+        <v>46.71</v>
       </c>
       <c r="X14" s="4">
-        <v>43.8</v>
+        <v>40.53</v>
       </c>
       <c r="Y14" s="2">
         <f>AVERAGE(I14:X14)</f>
-        <v>36.870624999999997</v>
+        <v>38.956249999999997</v>
       </c>
       <c r="Z14" s="2">
         <f>MEDIAN(I14:X14)</f>
-        <v>42.075000000000003</v>
+        <v>43.725000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
@@ -3746,327 +4091,327 @@
         <v>252</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="I15" s="1">
-        <v>13.45</v>
+        <v>13.44</v>
       </c>
       <c r="J15" s="1">
-        <v>40.270000000000003</v>
+        <v>50.2</v>
       </c>
       <c r="K15" s="1">
-        <v>41.7</v>
+        <v>49.64</v>
       </c>
       <c r="L15" s="4">
-        <v>34.46</v>
+        <v>54.81</v>
       </c>
       <c r="M15" s="1">
-        <v>16.12</v>
+        <v>12.32</v>
       </c>
       <c r="N15" s="1">
-        <v>47.62</v>
+        <v>43.33</v>
       </c>
       <c r="O15" s="1">
-        <v>44.65</v>
+        <v>45.4</v>
       </c>
       <c r="P15" s="4">
-        <v>36.29</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>34.39</v>
-      </c>
-      <c r="R15" s="1">
-        <v>63.95</v>
-      </c>
-      <c r="S15" s="1">
-        <v>56.23</v>
-      </c>
-      <c r="T15" s="4">
-        <v>56.34</v>
+        <v>49.59</v>
+      </c>
+      <c r="Q15">
+        <v>15.99</v>
+      </c>
+      <c r="R15">
+        <v>51.45</v>
+      </c>
+      <c r="S15">
+        <v>50.56</v>
+      </c>
+      <c r="T15" s="3">
+        <v>56.05</v>
       </c>
       <c r="U15">
-        <v>10.98</v>
-      </c>
-      <c r="V15" s="1">
-        <v>46.15</v>
-      </c>
-      <c r="W15" s="1">
-        <v>41.56</v>
-      </c>
-      <c r="X15" s="4">
-        <v>34.729999999999997</v>
+        <v>11.48</v>
+      </c>
+      <c r="V15">
+        <v>41.47</v>
+      </c>
+      <c r="W15">
+        <v>43.66</v>
+      </c>
+      <c r="X15" s="3">
+        <v>48.87</v>
       </c>
       <c r="Y15" s="2">
         <f>AVERAGE(I15:X15)</f>
-        <v>38.680625000000006</v>
+        <v>39.891249999999999</v>
       </c>
       <c r="Z15" s="2">
         <f>MEDIAN(I15:X15)</f>
-        <v>40.915000000000006</v>
+        <v>47.134999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="I16" s="1">
-        <v>17.59</v>
+        <v>28.4</v>
       </c>
       <c r="J16" s="1">
-        <v>52.73</v>
+        <v>52.91</v>
       </c>
       <c r="K16" s="1">
-        <v>49.91</v>
+        <v>51.94</v>
       </c>
       <c r="L16" s="4">
-        <v>47.73</v>
+        <v>46.95</v>
       </c>
       <c r="M16" s="1">
-        <v>10.29</v>
+        <v>22.27</v>
       </c>
       <c r="N16" s="1">
-        <v>40.74</v>
+        <v>51.94</v>
       </c>
       <c r="O16" s="1">
-        <v>40.71</v>
+        <v>48.76</v>
       </c>
       <c r="P16" s="4">
-        <v>33.950000000000003</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>22.79</v>
-      </c>
-      <c r="R16" s="1">
-        <v>55.56</v>
-      </c>
-      <c r="S16" s="1">
-        <v>52.2</v>
-      </c>
-      <c r="T16" s="4">
-        <v>51.52</v>
+        <v>43.54</v>
+      </c>
+      <c r="Q16">
+        <v>27.1</v>
+      </c>
+      <c r="R16">
+        <v>52.92</v>
+      </c>
+      <c r="S16">
+        <v>50.97</v>
+      </c>
+      <c r="T16" s="3">
+        <v>46.05</v>
       </c>
       <c r="U16">
-        <v>13.61</v>
-      </c>
-      <c r="V16" s="1">
-        <v>46.73</v>
-      </c>
-      <c r="W16" s="1">
-        <v>46.71</v>
-      </c>
-      <c r="X16" s="4">
-        <v>40.53</v>
+        <v>14.58</v>
+      </c>
+      <c r="V16">
+        <v>42.51</v>
+      </c>
+      <c r="W16">
+        <v>41.6</v>
+      </c>
+      <c r="X16" s="3">
+        <v>34.97</v>
       </c>
       <c r="Y16" s="2">
         <f>AVERAGE(I16:X16)</f>
-        <v>38.956249999999997</v>
+        <v>41.088125000000005</v>
       </c>
       <c r="Z16" s="2">
         <f>MEDIAN(I16:X16)</f>
-        <v>43.725000000000001</v>
+        <v>44.795000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="I17" s="1">
-        <v>13.44</v>
+        <v>20.62</v>
       </c>
       <c r="J17" s="1">
-        <v>50.2</v>
+        <v>55.56</v>
       </c>
       <c r="K17" s="1">
-        <v>49.64</v>
+        <v>54.68</v>
       </c>
       <c r="L17" s="4">
-        <v>54.81</v>
+        <v>61.89</v>
       </c>
       <c r="M17" s="1">
-        <v>12.32</v>
+        <v>24.15</v>
       </c>
       <c r="N17" s="1">
-        <v>43.33</v>
+        <v>56.07</v>
       </c>
       <c r="O17" s="1">
-        <v>45.4</v>
+        <v>54.35</v>
       </c>
       <c r="P17" s="4">
-        <v>49.59</v>
-      </c>
-      <c r="Q17">
-        <v>15.99</v>
-      </c>
-      <c r="R17">
-        <v>51.45</v>
-      </c>
-      <c r="S17">
-        <v>50.56</v>
-      </c>
-      <c r="T17" s="3">
-        <v>56.05</v>
+        <v>64.260000000000005</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>12.13</v>
+      </c>
+      <c r="R17" s="1">
+        <v>46.51</v>
+      </c>
+      <c r="S17" s="1">
+        <v>35.1</v>
+      </c>
+      <c r="T17" s="4">
+        <v>37.380000000000003</v>
       </c>
       <c r="U17">
-        <v>11.48</v>
-      </c>
-      <c r="V17">
-        <v>41.47</v>
-      </c>
-      <c r="W17">
-        <v>43.66</v>
-      </c>
-      <c r="X17" s="3">
-        <v>48.87</v>
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="V17" s="1">
+        <v>40</v>
+      </c>
+      <c r="W17" s="1">
+        <v>38.39</v>
+      </c>
+      <c r="X17" s="4">
+        <v>47.5</v>
       </c>
       <c r="Y17" s="2">
         <f>AVERAGE(I17:X17)</f>
-        <v>39.891249999999999</v>
+        <v>41.143750000000004</v>
       </c>
       <c r="Z17" s="2">
         <f>MEDIAN(I17:X17)</f>
-        <v>47.134999999999998</v>
+        <v>43.254999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="I18" s="1">
-        <v>28.4</v>
+        <v>24.44</v>
       </c>
       <c r="J18" s="1">
-        <v>52.91</v>
+        <v>58.6</v>
       </c>
       <c r="K18" s="1">
-        <v>51.94</v>
+        <v>53.44</v>
       </c>
       <c r="L18" s="4">
-        <v>46.95</v>
+        <v>52.31</v>
       </c>
       <c r="M18" s="1">
-        <v>22.27</v>
+        <v>22.4</v>
       </c>
       <c r="N18" s="1">
-        <v>51.94</v>
+        <v>57.69</v>
       </c>
       <c r="O18" s="1">
-        <v>48.76</v>
+        <v>52.61</v>
       </c>
       <c r="P18" s="4">
-        <v>43.54</v>
-      </c>
-      <c r="Q18">
-        <v>27.1</v>
-      </c>
-      <c r="R18">
-        <v>52.92</v>
-      </c>
-      <c r="S18">
-        <v>50.97</v>
-      </c>
-      <c r="T18" s="3">
-        <v>46.05</v>
+        <v>49.99</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="R18" s="1">
+        <v>44.74</v>
+      </c>
+      <c r="S18" s="1">
+        <v>43.04</v>
+      </c>
+      <c r="T18" s="4">
+        <v>41.54</v>
       </c>
       <c r="U18">
-        <v>14.58</v>
-      </c>
-      <c r="V18">
-        <v>42.51</v>
-      </c>
-      <c r="W18">
-        <v>41.6</v>
-      </c>
-      <c r="X18" s="3">
-        <v>34.97</v>
+        <v>12.65</v>
+      </c>
+      <c r="V18" s="1">
+        <v>48.32</v>
+      </c>
+      <c r="W18" s="1">
+        <v>44.63</v>
+      </c>
+      <c r="X18" s="4">
+        <v>46.92</v>
       </c>
       <c r="Y18" s="2">
         <f>AVERAGE(I18:X18)</f>
-        <v>41.088125000000005</v>
+        <v>41.91375</v>
       </c>
       <c r="Z18" s="2">
         <f>MEDIAN(I18:X18)</f>
-        <v>44.795000000000002</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
@@ -4074,245 +4419,245 @@
         <v>253</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="I19" s="1">
-        <v>20.62</v>
+        <v>27.92</v>
       </c>
       <c r="J19" s="1">
-        <v>55.56</v>
+        <v>58.39</v>
       </c>
       <c r="K19" s="1">
-        <v>54.68</v>
+        <v>53.69</v>
       </c>
       <c r="L19" s="4">
-        <v>61.89</v>
+        <v>51.24</v>
       </c>
       <c r="M19" s="1">
-        <v>24.15</v>
+        <v>20.39</v>
       </c>
       <c r="N19" s="1">
-        <v>56.07</v>
+        <v>53.08</v>
       </c>
       <c r="O19" s="1">
-        <v>54.35</v>
+        <v>49.44</v>
       </c>
       <c r="P19" s="4">
-        <v>64.260000000000005</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>12.13</v>
-      </c>
-      <c r="R19" s="1">
-        <v>46.51</v>
-      </c>
-      <c r="S19" s="1">
-        <v>35.1</v>
-      </c>
-      <c r="T19" s="4">
-        <v>37.380000000000003</v>
+        <v>45.26</v>
+      </c>
+      <c r="Q19">
+        <v>25.35</v>
+      </c>
+      <c r="R19">
+        <v>56.25</v>
+      </c>
+      <c r="S19">
+        <v>51.92</v>
+      </c>
+      <c r="T19" s="3">
+        <v>48.18</v>
       </c>
       <c r="U19">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="V19" s="1">
-        <v>40</v>
-      </c>
-      <c r="W19" s="1">
-        <v>38.39</v>
-      </c>
-      <c r="X19" s="4">
-        <v>47.5</v>
+        <v>15.65</v>
+      </c>
+      <c r="V19">
+        <v>45.17</v>
+      </c>
+      <c r="W19">
+        <v>43.75</v>
+      </c>
+      <c r="X19" s="3">
+        <v>36.74</v>
       </c>
       <c r="Y19" s="2">
         <f>AVERAGE(I19:X19)</f>
-        <v>41.143750000000004</v>
+        <v>42.651249999999997</v>
       </c>
       <c r="Z19" s="2">
         <f>MEDIAN(I19:X19)</f>
-        <v>43.254999999999995</v>
+        <v>46.72</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I20" s="1">
-        <v>24.44</v>
+        <v>17.32</v>
       </c>
       <c r="J20" s="1">
-        <v>58.6</v>
+        <v>58.72</v>
       </c>
       <c r="K20" s="1">
-        <v>53.44</v>
+        <v>47.35</v>
       </c>
       <c r="L20" s="4">
-        <v>52.31</v>
+        <v>62.69</v>
       </c>
       <c r="M20" s="1">
-        <v>22.4</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>57.69</v>
+        <v>54.55</v>
       </c>
       <c r="O20" s="1">
-        <v>52.61</v>
+        <v>44.76</v>
       </c>
       <c r="P20" s="4">
-        <v>49.99</v>
+        <v>54.6</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.3</v>
+        <v>27.4</v>
       </c>
       <c r="R20" s="1">
-        <v>44.74</v>
+        <v>62.63</v>
       </c>
       <c r="S20" s="1">
-        <v>43.04</v>
+        <v>48.45</v>
       </c>
       <c r="T20" s="4">
-        <v>41.54</v>
+        <v>58.66</v>
       </c>
       <c r="U20">
-        <v>12.65</v>
+        <v>7.55</v>
       </c>
       <c r="V20" s="1">
-        <v>48.32</v>
+        <v>50.47</v>
       </c>
       <c r="W20" s="1">
-        <v>44.63</v>
+        <v>38.17</v>
       </c>
       <c r="X20" s="4">
-        <v>46.92</v>
+        <v>50.02</v>
       </c>
       <c r="Y20" s="2">
         <f>AVERAGE(I20:X20)</f>
-        <v>41.91375</v>
+        <v>43.790624999999991</v>
       </c>
       <c r="Z20" s="2">
         <f>MEDIAN(I20:X20)</f>
-        <v>45.83</v>
+        <v>49.234999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="I21" s="1">
-        <v>27.92</v>
+        <v>16.39</v>
       </c>
       <c r="J21" s="1">
-        <v>58.39</v>
+        <v>45.02</v>
       </c>
       <c r="K21" s="1">
-        <v>53.69</v>
+        <v>53.13</v>
       </c>
       <c r="L21" s="4">
-        <v>51.24</v>
+        <v>53.3</v>
       </c>
       <c r="M21" s="1">
-        <v>20.39</v>
+        <v>20.95</v>
       </c>
       <c r="N21" s="1">
-        <v>53.08</v>
+        <v>47.06</v>
       </c>
       <c r="O21" s="1">
-        <v>49.44</v>
+        <v>56.5</v>
       </c>
       <c r="P21" s="4">
-        <v>45.26</v>
-      </c>
-      <c r="Q21">
-        <v>25.35</v>
-      </c>
-      <c r="R21">
-        <v>56.25</v>
-      </c>
-      <c r="S21">
-        <v>51.92</v>
-      </c>
-      <c r="T21" s="3">
-        <v>48.18</v>
+        <v>59.24</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>24.89</v>
+      </c>
+      <c r="R21" s="1">
+        <v>49.39</v>
+      </c>
+      <c r="S21" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="T21" s="4">
+        <v>52.41</v>
       </c>
       <c r="U21">
-        <v>15.65</v>
-      </c>
-      <c r="V21">
-        <v>45.17</v>
-      </c>
-      <c r="W21">
-        <v>43.75</v>
-      </c>
-      <c r="X21" s="3">
-        <v>36.74</v>
+        <v>16.47</v>
+      </c>
+      <c r="V21" s="1">
+        <v>49.23</v>
+      </c>
+      <c r="W21" s="1">
+        <v>52.91</v>
+      </c>
+      <c r="X21" s="4">
+        <v>52.12</v>
       </c>
       <c r="Y21" s="2">
         <f>AVERAGE(I21:X21)</f>
-        <v>42.651249999999997</v>
+        <v>43.844374999999999</v>
       </c>
       <c r="Z21" s="2">
         <f>MEDIAN(I21:X21)</f>
-        <v>46.72</v>
+        <v>50.754999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
@@ -4320,737 +4665,737 @@
         <v>252</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="I22" s="1">
-        <v>17.32</v>
+        <v>22.13</v>
       </c>
       <c r="J22" s="1">
-        <v>58.72</v>
+        <v>48.44</v>
       </c>
       <c r="K22" s="1">
-        <v>47.35</v>
+        <v>53.33</v>
       </c>
       <c r="L22" s="4">
-        <v>62.69</v>
+        <v>57.04</v>
       </c>
       <c r="M22" s="1">
-        <v>17.309999999999999</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>54.55</v>
+        <v>44.98</v>
       </c>
       <c r="O22" s="1">
-        <v>44.76</v>
+        <v>49.26</v>
       </c>
       <c r="P22" s="4">
-        <v>54.6</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>27.4</v>
-      </c>
-      <c r="R22" s="1">
-        <v>62.63</v>
-      </c>
-      <c r="S22" s="1">
-        <v>48.45</v>
-      </c>
-      <c r="T22" s="4">
-        <v>58.66</v>
+        <v>53.47</v>
+      </c>
+      <c r="Q22">
+        <v>30.38</v>
+      </c>
+      <c r="R22">
+        <v>54.4</v>
+      </c>
+      <c r="S22">
+        <v>60.34</v>
+      </c>
+      <c r="T22" s="3">
+        <v>66.86</v>
       </c>
       <c r="U22">
-        <v>7.55</v>
-      </c>
-      <c r="V22" s="1">
-        <v>50.47</v>
-      </c>
-      <c r="W22" s="1">
-        <v>38.17</v>
-      </c>
-      <c r="X22" s="4">
-        <v>50.02</v>
+        <v>13.89</v>
+      </c>
+      <c r="V22">
+        <v>40.71</v>
+      </c>
+      <c r="W22">
+        <v>46.16</v>
+      </c>
+      <c r="X22" s="3">
+        <v>47.56</v>
       </c>
       <c r="Y22" s="2">
         <f>AVERAGE(I22:X22)</f>
-        <v>43.790624999999991</v>
+        <v>44.125624999999999</v>
       </c>
       <c r="Z22" s="2">
         <f>MEDIAN(I22:X22)</f>
-        <v>49.234999999999999</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="I23" s="1">
-        <v>16.39</v>
+        <v>28.94</v>
       </c>
       <c r="J23" s="1">
-        <v>45.02</v>
+        <v>61.54</v>
       </c>
       <c r="K23" s="1">
-        <v>53.13</v>
+        <v>54.35</v>
       </c>
       <c r="L23" s="4">
-        <v>53.3</v>
+        <v>52.32</v>
       </c>
       <c r="M23" s="1">
-        <v>20.95</v>
+        <v>24.68</v>
       </c>
       <c r="N23" s="1">
-        <v>47.06</v>
+        <v>59.55</v>
       </c>
       <c r="O23" s="1">
-        <v>56.5</v>
+        <v>49.77</v>
       </c>
       <c r="P23" s="4">
-        <v>59.24</v>
+        <v>53.51</v>
       </c>
       <c r="Q23" s="1">
-        <v>24.89</v>
+        <v>27.25</v>
       </c>
       <c r="R23" s="1">
-        <v>49.39</v>
+        <v>58.38</v>
       </c>
       <c r="S23" s="1">
-        <v>52.5</v>
+        <v>50.93</v>
       </c>
       <c r="T23" s="4">
-        <v>52.41</v>
+        <v>49.59</v>
       </c>
       <c r="U23">
-        <v>16.47</v>
+        <v>20.25</v>
       </c>
       <c r="V23" s="1">
-        <v>49.23</v>
+        <v>50.3</v>
       </c>
       <c r="W23" s="1">
-        <v>52.91</v>
+        <v>43.46</v>
       </c>
       <c r="X23" s="4">
-        <v>52.12</v>
+        <v>41.69</v>
       </c>
       <c r="Y23" s="2">
         <f>AVERAGE(I23:X23)</f>
-        <v>43.844374999999999</v>
+        <v>45.406874999999999</v>
       </c>
       <c r="Z23" s="2">
         <f>MEDIAN(I23:X23)</f>
-        <v>50.754999999999995</v>
+        <v>50.034999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="I24" s="1">
-        <v>22.13</v>
+        <v>23.36</v>
       </c>
       <c r="J24" s="1">
-        <v>48.44</v>
+        <v>51.85</v>
       </c>
       <c r="K24" s="1">
-        <v>53.33</v>
+        <v>55.69</v>
       </c>
       <c r="L24" s="4">
-        <v>57.04</v>
+        <v>50.24</v>
       </c>
       <c r="M24" s="1">
-        <v>17.059999999999999</v>
+        <v>24.16</v>
       </c>
       <c r="N24" s="1">
-        <v>44.98</v>
+        <v>48.42</v>
       </c>
       <c r="O24" s="1">
+        <v>58.64</v>
+      </c>
+      <c r="P24" s="4">
+        <v>47.58</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>20.62</v>
+      </c>
+      <c r="R24" s="1">
         <v>49.26</v>
       </c>
-      <c r="P24" s="4">
-        <v>53.47</v>
-      </c>
-      <c r="Q24">
-        <v>30.38</v>
-      </c>
-      <c r="R24">
-        <v>54.4</v>
-      </c>
-      <c r="S24">
-        <v>60.34</v>
-      </c>
-      <c r="T24" s="3">
-        <v>66.86</v>
+      <c r="S24" s="1">
+        <v>52.66</v>
+      </c>
+      <c r="T24" s="4">
+        <v>57.16</v>
       </c>
       <c r="U24">
-        <v>13.89</v>
-      </c>
-      <c r="V24">
-        <v>40.71</v>
-      </c>
-      <c r="W24">
-        <v>46.16</v>
-      </c>
-      <c r="X24" s="3">
-        <v>47.56</v>
+        <v>30.09</v>
+      </c>
+      <c r="V24" s="1">
+        <v>56.18</v>
+      </c>
+      <c r="W24" s="1">
+        <v>56.08</v>
+      </c>
+      <c r="X24" s="4">
+        <v>48.52</v>
       </c>
       <c r="Y24" s="2">
         <f>AVERAGE(I24:X24)</f>
-        <v>44.125624999999999</v>
+        <v>45.656874999999999</v>
       </c>
       <c r="Z24" s="2">
         <f>MEDIAN(I24:X24)</f>
-        <v>48</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="I25" s="1">
-        <v>23.36</v>
+        <v>22.39</v>
       </c>
       <c r="J25" s="1">
-        <v>51.85</v>
+        <v>65.69</v>
       </c>
       <c r="K25" s="1">
-        <v>55.69</v>
+        <v>57.03</v>
       </c>
       <c r="L25" s="4">
-        <v>50.24</v>
+        <v>67</v>
       </c>
       <c r="M25" s="1">
-        <v>24.16</v>
+        <v>10.9</v>
       </c>
       <c r="N25" s="1">
-        <v>48.42</v>
+        <v>56.12</v>
       </c>
       <c r="O25" s="1">
-        <v>58.64</v>
+        <v>49.95</v>
       </c>
       <c r="P25" s="4">
-        <v>47.58</v>
+        <v>54.44</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.62</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>49.26</v>
+        <v>61.54</v>
       </c>
       <c r="S25" s="1">
-        <v>52.66</v>
+        <v>54.84</v>
       </c>
       <c r="T25" s="4">
-        <v>57.16</v>
+        <v>61.81</v>
       </c>
       <c r="U25">
-        <v>30.09</v>
+        <v>11.42</v>
       </c>
       <c r="V25" s="1">
-        <v>56.18</v>
+        <v>52.24</v>
       </c>
       <c r="W25" s="1">
-        <v>56.08</v>
+        <v>43.63</v>
       </c>
       <c r="X25" s="4">
-        <v>48.52</v>
+        <v>51.32</v>
       </c>
       <c r="Y25" s="2">
         <f>AVERAGE(I25:X25)</f>
-        <v>45.656874999999999</v>
+        <v>46.2425</v>
       </c>
       <c r="Z25" s="2">
         <f>MEDIAN(I25:X25)</f>
-        <v>49.75</v>
+        <v>53.34</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="I26" s="1">
-        <v>22.39</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>65.69</v>
+        <v>63.04</v>
       </c>
       <c r="K26" s="1">
-        <v>57.03</v>
+        <v>57.79</v>
       </c>
       <c r="L26" s="4">
-        <v>67</v>
+        <v>71.56</v>
       </c>
       <c r="M26" s="1">
-        <v>10.9</v>
+        <v>36.51</v>
       </c>
       <c r="N26" s="1">
-        <v>56.12</v>
+        <v>67.44</v>
       </c>
       <c r="O26" s="1">
-        <v>49.95</v>
+        <v>52.83</v>
       </c>
       <c r="P26" s="4">
-        <v>54.44</v>
+        <v>63.46</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.559999999999999</v>
+        <v>16.96</v>
       </c>
       <c r="R26" s="1">
-        <v>61.54</v>
+        <v>49.44</v>
       </c>
       <c r="S26" s="1">
-        <v>54.84</v>
+        <v>43.03</v>
       </c>
       <c r="T26" s="4">
-        <v>61.81</v>
+        <v>61.69</v>
       </c>
       <c r="U26">
-        <v>11.42</v>
+        <v>7.05</v>
       </c>
       <c r="V26" s="1">
-        <v>52.24</v>
+        <v>45.33</v>
       </c>
       <c r="W26" s="1">
-        <v>43.63</v>
+        <v>29.75</v>
       </c>
       <c r="X26" s="4">
-        <v>51.32</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="Y26" s="2">
         <f>AVERAGE(I26:X26)</f>
-        <v>46.2425</v>
+        <v>46.521249999999995</v>
       </c>
       <c r="Z26" s="2">
         <f>MEDIAN(I26:X26)</f>
-        <v>53.34</v>
+        <v>47.384999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="I27" s="1">
-        <v>39.590000000000003</v>
+        <v>32.33</v>
       </c>
       <c r="J27" s="1">
-        <v>63.04</v>
+        <v>57.78</v>
       </c>
       <c r="K27" s="1">
-        <v>57.79</v>
+        <v>57.2</v>
       </c>
       <c r="L27" s="4">
-        <v>71.56</v>
+        <v>50.19</v>
       </c>
       <c r="M27" s="1">
-        <v>36.51</v>
+        <v>28.35</v>
       </c>
       <c r="N27" s="1">
-        <v>67.44</v>
+        <v>52.68</v>
       </c>
       <c r="O27" s="1">
-        <v>52.83</v>
+        <v>50.49</v>
       </c>
       <c r="P27" s="4">
-        <v>63.46</v>
+        <v>47.27</v>
       </c>
       <c r="Q27" s="1">
-        <v>16.96</v>
+        <v>42.66</v>
       </c>
       <c r="R27" s="1">
-        <v>49.44</v>
+        <v>62.93</v>
       </c>
       <c r="S27" s="1">
-        <v>43.03</v>
+        <v>62.18</v>
       </c>
       <c r="T27" s="4">
-        <v>61.69</v>
+        <v>59.1</v>
       </c>
       <c r="U27">
-        <v>7.05</v>
+        <v>15.19</v>
       </c>
       <c r="V27" s="1">
-        <v>45.33</v>
+        <v>44.23</v>
       </c>
       <c r="W27" s="1">
-        <v>29.75</v>
+        <v>41.06</v>
       </c>
       <c r="X27" s="4">
-        <v>38.869999999999997</v>
+        <v>45.45</v>
       </c>
       <c r="Y27" s="2">
         <f>AVERAGE(I27:X27)</f>
-        <v>46.521249999999995</v>
+        <v>46.818125000000009</v>
       </c>
       <c r="Z27" s="2">
         <f>MEDIAN(I27:X27)</f>
-        <v>47.384999999999998</v>
+        <v>48.730000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="I28" s="1">
-        <v>32.33</v>
+        <v>29.14</v>
       </c>
       <c r="J28" s="1">
-        <v>57.78</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="K28" s="1">
-        <v>57.2</v>
+        <v>60.4</v>
       </c>
       <c r="L28" s="4">
-        <v>50.19</v>
+        <v>58.72</v>
       </c>
       <c r="M28" s="1">
-        <v>28.35</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="N28" s="1">
-        <v>52.68</v>
+        <v>58.99</v>
       </c>
       <c r="O28" s="1">
-        <v>50.49</v>
+        <v>54.98</v>
       </c>
       <c r="P28" s="4">
-        <v>47.27</v>
+        <v>51.4</v>
       </c>
       <c r="Q28" s="1">
-        <v>42.66</v>
+        <v>20.75</v>
       </c>
       <c r="R28" s="1">
-        <v>62.93</v>
+        <v>64.34</v>
       </c>
       <c r="S28" s="1">
-        <v>62.18</v>
+        <v>58.46</v>
       </c>
       <c r="T28" s="4">
-        <v>59.1</v>
+        <v>53.44</v>
       </c>
       <c r="U28">
-        <v>15.19</v>
+        <v>11.49</v>
       </c>
       <c r="V28" s="1">
-        <v>44.23</v>
+        <v>53.73</v>
       </c>
       <c r="W28" s="1">
-        <v>41.06</v>
+        <v>46.04</v>
       </c>
       <c r="X28" s="4">
-        <v>45.45</v>
+        <v>44.56</v>
       </c>
       <c r="Y28" s="2">
         <f>AVERAGE(I28:X28)</f>
-        <v>46.818125000000009</v>
+        <v>47.08</v>
       </c>
       <c r="Z28" s="2">
         <f>MEDIAN(I28:X28)</f>
-        <v>48.730000000000004</v>
+        <v>53.584999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="I29" s="1">
-        <v>29.14</v>
+        <v>37.24</v>
       </c>
       <c r="J29" s="1">
-        <v>67.150000000000006</v>
+        <v>60.38</v>
       </c>
       <c r="K29" s="1">
-        <v>60.4</v>
+        <v>56.67</v>
       </c>
       <c r="L29" s="4">
-        <v>58.72</v>
+        <v>66.61</v>
       </c>
       <c r="M29" s="1">
-        <v>19.690000000000001</v>
+        <v>21.52</v>
       </c>
       <c r="N29" s="1">
-        <v>58.99</v>
+        <v>50</v>
       </c>
       <c r="O29" s="1">
-        <v>54.98</v>
+        <v>45.95</v>
       </c>
       <c r="P29" s="4">
-        <v>51.4</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="Q29" s="1">
-        <v>20.75</v>
+        <v>37.979999999999997</v>
       </c>
       <c r="R29" s="1">
-        <v>64.34</v>
+        <v>57.69</v>
       </c>
       <c r="S29" s="1">
-        <v>58.46</v>
+        <v>56.56</v>
       </c>
       <c r="T29" s="4">
-        <v>53.44</v>
+        <v>65.3</v>
       </c>
       <c r="U29">
-        <v>11.49</v>
+        <v>22.08</v>
       </c>
       <c r="V29" s="1">
-        <v>53.73</v>
+        <v>44.66</v>
       </c>
       <c r="W29" s="1">
-        <v>46.04</v>
+        <v>46.45</v>
       </c>
       <c r="X29" s="4">
-        <v>44.56</v>
+        <v>48.79</v>
       </c>
       <c r="Y29" s="2">
         <f>AVERAGE(I29:X29)</f>
-        <v>47.08</v>
+        <v>47.370625000000004</v>
       </c>
       <c r="Z29" s="2">
         <f>MEDIAN(I29:X29)</f>
-        <v>53.584999999999994</v>
+        <v>47.620000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="I30" s="1">
-        <v>37.24</v>
+        <v>46.93</v>
       </c>
       <c r="J30" s="1">
-        <v>60.38</v>
+        <v>72.88</v>
       </c>
       <c r="K30" s="1">
-        <v>56.67</v>
+        <v>66.34</v>
       </c>
       <c r="L30" s="4">
-        <v>66.61</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="M30" s="1">
-        <v>21.52</v>
+        <v>38.39</v>
       </c>
       <c r="N30" s="1">
-        <v>50</v>
+        <v>70.09</v>
       </c>
       <c r="O30" s="1">
-        <v>45.95</v>
+        <v>61.61</v>
       </c>
       <c r="P30" s="4">
-        <v>40.049999999999997</v>
+        <v>67.12</v>
       </c>
       <c r="Q30" s="1">
-        <v>37.979999999999997</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="R30" s="1">
-        <v>57.69</v>
+        <v>33.33</v>
       </c>
       <c r="S30" s="1">
-        <v>56.56</v>
+        <v>28.2</v>
       </c>
       <c r="T30" s="4">
-        <v>65.3</v>
+        <v>22.29</v>
       </c>
       <c r="U30">
-        <v>22.08</v>
+        <v>31.24</v>
       </c>
       <c r="V30" s="1">
-        <v>44.66</v>
+        <v>52.73</v>
       </c>
       <c r="W30" s="1">
-        <v>46.45</v>
+        <v>46.81</v>
       </c>
       <c r="X30" s="4">
-        <v>48.79</v>
+        <v>53.88</v>
       </c>
       <c r="Y30" s="2">
         <f>AVERAGE(I30:X30)</f>
-        <v>47.370625000000004</v>
+        <v>47.893750000000004</v>
       </c>
       <c r="Z30" s="2">
         <f>MEDIAN(I30:X30)</f>
-        <v>47.620000000000005</v>
+        <v>49.83</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
@@ -5058,245 +5403,245 @@
         <v>253</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="I31" s="1">
-        <v>46.93</v>
+        <v>36.26</v>
       </c>
       <c r="J31" s="1">
-        <v>72.88</v>
+        <v>66.67</v>
       </c>
       <c r="K31" s="1">
-        <v>66.34</v>
+        <v>60.56</v>
       </c>
       <c r="L31" s="4">
-        <v>70.400000000000006</v>
+        <v>71.959999999999994</v>
       </c>
       <c r="M31" s="1">
-        <v>38.39</v>
+        <v>13.46</v>
       </c>
       <c r="N31" s="1">
-        <v>70.09</v>
+        <v>55.05</v>
       </c>
       <c r="O31" s="1">
-        <v>61.61</v>
+        <v>46.78</v>
       </c>
       <c r="P31" s="4">
-        <v>67.12</v>
+        <v>41.82</v>
       </c>
       <c r="Q31" s="1">
-        <v>4.0599999999999996</v>
+        <v>34.86</v>
       </c>
       <c r="R31" s="1">
-        <v>33.33</v>
+        <v>64.22</v>
       </c>
       <c r="S31" s="1">
-        <v>28.2</v>
+        <v>58.58</v>
       </c>
       <c r="T31" s="4">
-        <v>22.29</v>
+        <v>67.42</v>
       </c>
       <c r="U31">
-        <v>31.24</v>
+        <v>15.26</v>
       </c>
       <c r="V31" s="1">
-        <v>52.73</v>
+        <v>50</v>
       </c>
       <c r="W31" s="1">
-        <v>46.81</v>
+        <v>44.92</v>
       </c>
       <c r="X31" s="4">
-        <v>53.88</v>
+        <v>44.75</v>
       </c>
       <c r="Y31" s="2">
         <f>AVERAGE(I31:X31)</f>
-        <v>47.893750000000004</v>
+        <v>48.285624999999996</v>
       </c>
       <c r="Z31" s="2">
         <f>MEDIAN(I31:X31)</f>
-        <v>49.83</v>
+        <v>48.39</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I32" s="1">
-        <v>36.26</v>
+        <v>28.55</v>
       </c>
       <c r="J32" s="1">
-        <v>66.67</v>
+        <v>58.46</v>
       </c>
       <c r="K32" s="1">
-        <v>60.56</v>
+        <v>52.5</v>
       </c>
       <c r="L32" s="4">
-        <v>71.959999999999994</v>
+        <v>58.28</v>
       </c>
       <c r="M32" s="1">
-        <v>13.46</v>
+        <v>27.38</v>
       </c>
       <c r="N32" s="1">
-        <v>55.05</v>
+        <v>61.31</v>
       </c>
       <c r="O32" s="1">
-        <v>46.78</v>
+        <v>51.76</v>
       </c>
       <c r="P32" s="4">
-        <v>41.82</v>
+        <v>61.69</v>
       </c>
       <c r="Q32" s="1">
-        <v>34.86</v>
+        <v>27.81</v>
       </c>
       <c r="R32" s="1">
-        <v>64.22</v>
+        <v>61.54</v>
       </c>
       <c r="S32" s="1">
-        <v>58.58</v>
+        <v>56.67</v>
       </c>
       <c r="T32" s="4">
-        <v>67.42</v>
+        <v>57.98</v>
       </c>
       <c r="U32">
-        <v>15.26</v>
+        <v>20.7</v>
       </c>
       <c r="V32" s="1">
-        <v>50</v>
+        <v>51.13</v>
       </c>
       <c r="W32" s="1">
-        <v>44.92</v>
+        <v>48.59</v>
       </c>
       <c r="X32" s="4">
-        <v>44.75</v>
+        <v>52.28</v>
       </c>
       <c r="Y32" s="2">
         <f>AVERAGE(I32:X32)</f>
-        <v>48.285624999999996</v>
+        <v>48.539375000000007</v>
       </c>
       <c r="Z32" s="2">
         <f>MEDIAN(I32:X32)</f>
-        <v>48.39</v>
+        <v>52.39</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="I33" s="1">
-        <v>28.55</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="J33" s="1">
-        <v>58.46</v>
+        <v>62.28</v>
       </c>
       <c r="K33" s="1">
-        <v>52.5</v>
+        <v>58.42</v>
       </c>
       <c r="L33" s="4">
-        <v>58.28</v>
+        <v>53.81</v>
       </c>
       <c r="M33" s="1">
-        <v>27.38</v>
+        <v>25.37</v>
       </c>
       <c r="N33" s="1">
-        <v>61.31</v>
+        <v>49.34</v>
       </c>
       <c r="O33" s="1">
-        <v>51.76</v>
+        <v>54.49</v>
       </c>
       <c r="P33" s="4">
-        <v>61.69</v>
+        <v>46.16</v>
       </c>
       <c r="Q33" s="1">
-        <v>27.81</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="R33" s="1">
-        <v>61.54</v>
+        <v>61.86</v>
       </c>
       <c r="S33" s="1">
-        <v>56.67</v>
+        <v>62.53</v>
       </c>
       <c r="T33" s="4">
-        <v>57.98</v>
+        <v>63.19</v>
       </c>
       <c r="U33">
-        <v>20.7</v>
+        <v>23.38</v>
       </c>
       <c r="V33" s="1">
-        <v>51.13</v>
+        <v>55.94</v>
       </c>
       <c r="W33" s="1">
-        <v>48.59</v>
+        <v>51.78</v>
       </c>
       <c r="X33" s="4">
-        <v>52.28</v>
+        <v>47.84</v>
       </c>
       <c r="Y33" s="2">
         <f>AVERAGE(I33:X33)</f>
-        <v>48.539375000000007</v>
+        <v>49.419999999999995</v>
       </c>
       <c r="Z33" s="2">
         <f>MEDIAN(I33:X33)</f>
-        <v>52.39</v>
+        <v>52.795000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
@@ -5304,341 +5649,341 @@
         <v>252</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="I34" s="1">
-        <v>34.630000000000003</v>
+        <v>23.53</v>
       </c>
       <c r="J34" s="1">
-        <v>62.28</v>
+        <v>56.69</v>
       </c>
       <c r="K34" s="1">
-        <v>58.42</v>
+        <v>57.38</v>
       </c>
       <c r="L34" s="4">
-        <v>53.81</v>
+        <v>64.7</v>
       </c>
       <c r="M34" s="1">
-        <v>25.37</v>
+        <v>21.35</v>
       </c>
       <c r="N34" s="1">
-        <v>49.34</v>
+        <v>54.25</v>
       </c>
       <c r="O34" s="1">
-        <v>54.49</v>
+        <v>55.49</v>
       </c>
       <c r="P34" s="4">
-        <v>46.16</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="R34" s="1">
-        <v>61.86</v>
-      </c>
-      <c r="S34" s="1">
-        <v>62.53</v>
-      </c>
-      <c r="T34" s="4">
-        <v>63.19</v>
+        <v>62.31</v>
+      </c>
+      <c r="Q34">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="R34">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="S34">
+        <v>68.58</v>
+      </c>
+      <c r="T34" s="3">
+        <v>77.03</v>
       </c>
       <c r="U34">
-        <v>23.38</v>
-      </c>
-      <c r="V34" s="1">
-        <v>55.94</v>
-      </c>
-      <c r="W34" s="1">
-        <v>51.78</v>
-      </c>
-      <c r="X34" s="4">
-        <v>47.84</v>
+        <v>15.94</v>
+      </c>
+      <c r="V34">
+        <v>49.11</v>
+      </c>
+      <c r="W34">
+        <v>51.23</v>
+      </c>
+      <c r="X34" s="3">
+        <v>57.6</v>
       </c>
       <c r="Y34" s="2">
         <f>AVERAGE(I34:X34)</f>
-        <v>49.419999999999995</v>
+        <v>50.847500000000004</v>
       </c>
       <c r="Z34" s="2">
         <f>MEDIAN(I34:X34)</f>
-        <v>52.795000000000002</v>
+        <v>56.09</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="I35" s="1">
-        <v>23.53</v>
+        <v>29.12</v>
       </c>
       <c r="J35" s="1">
-        <v>56.69</v>
+        <v>63.53</v>
       </c>
       <c r="K35" s="1">
-        <v>57.38</v>
+        <v>62.57</v>
       </c>
       <c r="L35" s="4">
-        <v>64.7</v>
+        <v>56.91</v>
       </c>
       <c r="M35" s="1">
-        <v>21.35</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="N35" s="1">
-        <v>54.25</v>
+        <v>65.19</v>
       </c>
       <c r="O35" s="1">
-        <v>55.49</v>
+        <v>70.37</v>
       </c>
       <c r="P35" s="4">
-        <v>62.31</v>
-      </c>
-      <c r="Q35">
-        <v>33.049999999999997</v>
-      </c>
-      <c r="R35">
-        <v>65.319999999999993</v>
-      </c>
-      <c r="S35">
-        <v>68.58</v>
-      </c>
-      <c r="T35" s="3">
-        <v>77.03</v>
+        <v>62.33</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>16.39</v>
+      </c>
+      <c r="R35" s="1">
+        <v>52.14</v>
+      </c>
+      <c r="S35" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="T35" s="4">
+        <v>47.37</v>
       </c>
       <c r="U35">
-        <v>15.94</v>
-      </c>
-      <c r="V35">
-        <v>49.11</v>
-      </c>
-      <c r="W35">
-        <v>51.23</v>
-      </c>
-      <c r="X35" s="3">
-        <v>57.6</v>
+        <v>28.39</v>
+      </c>
+      <c r="V35" s="1">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="W35" s="1">
+        <v>62.77</v>
+      </c>
+      <c r="X35" s="4">
+        <v>49.74</v>
       </c>
       <c r="Y35" s="2">
         <f>AVERAGE(I35:X35)</f>
-        <v>50.847500000000004</v>
+        <v>51.491249999999994</v>
       </c>
       <c r="Z35" s="2">
         <f>MEDIAN(I35:X35)</f>
-        <v>56.09</v>
+        <v>55.354999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="I36" s="1">
-        <v>29.12</v>
+        <v>35.72</v>
       </c>
       <c r="J36" s="1">
-        <v>63.53</v>
+        <v>64.3</v>
       </c>
       <c r="K36" s="1">
-        <v>62.57</v>
+        <v>60.87</v>
       </c>
       <c r="L36" s="4">
-        <v>56.91</v>
+        <v>59.87</v>
       </c>
       <c r="M36" s="1">
-        <v>38.950000000000003</v>
+        <v>35.43</v>
       </c>
       <c r="N36" s="1">
-        <v>65.19</v>
+        <v>65.72</v>
       </c>
       <c r="O36" s="1">
-        <v>70.37</v>
+        <v>60.74</v>
       </c>
       <c r="P36" s="4">
-        <v>62.33</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>16.39</v>
-      </c>
-      <c r="R36" s="1">
-        <v>52.14</v>
-      </c>
-      <c r="S36" s="1">
-        <v>53.8</v>
-      </c>
-      <c r="T36" s="4">
-        <v>47.37</v>
+        <v>59.43</v>
+      </c>
+      <c r="Q36">
+        <v>37.85</v>
+      </c>
+      <c r="R36">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="S36">
+        <v>61.8</v>
+      </c>
+      <c r="T36" s="3">
+        <v>61.5</v>
       </c>
       <c r="U36">
-        <v>28.39</v>
-      </c>
-      <c r="V36" s="1">
-        <v>64.290000000000006</v>
-      </c>
-      <c r="W36" s="1">
-        <v>62.77</v>
-      </c>
-      <c r="X36" s="4">
-        <v>49.74</v>
+        <v>19.11</v>
+      </c>
+      <c r="V36">
+        <v>49.84</v>
+      </c>
+      <c r="W36">
+        <v>46.03</v>
+      </c>
+      <c r="X36" s="3">
+        <v>41.72</v>
       </c>
       <c r="Y36" s="2">
         <f>AVERAGE(I36:X36)</f>
-        <v>51.491249999999994</v>
+        <v>51.558750000000003</v>
       </c>
       <c r="Z36" s="2">
         <f>MEDIAN(I36:X36)</f>
-        <v>55.354999999999997</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I37" s="1">
-        <v>35.72</v>
+        <v>38.74</v>
       </c>
       <c r="J37" s="1">
-        <v>64.3</v>
+        <v>66.209999999999994</v>
       </c>
       <c r="K37" s="1">
-        <v>60.87</v>
+        <v>63.28</v>
       </c>
       <c r="L37" s="4">
-        <v>59.87</v>
+        <v>62.13</v>
       </c>
       <c r="M37" s="1">
-        <v>35.43</v>
+        <v>32.31</v>
       </c>
       <c r="N37" s="1">
-        <v>65.72</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="O37" s="1">
-        <v>60.74</v>
+        <v>58.63</v>
       </c>
       <c r="P37" s="4">
-        <v>59.43</v>
-      </c>
-      <c r="Q37">
-        <v>37.85</v>
-      </c>
-      <c r="R37">
-        <v>65.010000000000005</v>
-      </c>
-      <c r="S37">
-        <v>61.8</v>
-      </c>
-      <c r="T37" s="3">
-        <v>61.5</v>
-      </c>
-      <c r="U37">
-        <v>19.11</v>
-      </c>
-      <c r="V37">
-        <v>49.84</v>
-      </c>
-      <c r="W37">
-        <v>46.03</v>
-      </c>
-      <c r="X37" s="3">
-        <v>41.72</v>
+        <v>67.92</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>15.04</v>
+      </c>
+      <c r="R37" s="1">
+        <v>54.29</v>
+      </c>
+      <c r="S37" s="1">
+        <v>49.21</v>
+      </c>
+      <c r="T37" s="4">
+        <v>52.96</v>
+      </c>
+      <c r="U37" s="1">
+        <v>15.27</v>
+      </c>
+      <c r="V37" s="1">
+        <v>70.42</v>
+      </c>
+      <c r="W37" s="1">
+        <v>51.69</v>
+      </c>
+      <c r="X37" s="4">
+        <v>65.73</v>
       </c>
       <c r="Y37" s="2">
         <f>AVERAGE(I37:X37)</f>
-        <v>51.558750000000003</v>
+        <v>52.11</v>
       </c>
       <c r="Z37" s="2">
         <f>MEDIAN(I37:X37)</f>
-        <v>59.65</v>
+        <v>56.46</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>26</v>
@@ -5653,311 +5998,311 @@
         <v>29</v>
       </c>
       <c r="I38" s="1">
-        <v>38.74</v>
+        <v>36.18</v>
       </c>
       <c r="J38" s="1">
-        <v>66.209999999999994</v>
+        <v>60.4</v>
       </c>
       <c r="K38" s="1">
-        <v>63.28</v>
+        <v>58.85</v>
       </c>
       <c r="L38" s="4">
-        <v>62.13</v>
+        <v>62.04</v>
       </c>
       <c r="M38" s="1">
-        <v>32.31</v>
+        <v>36.61</v>
       </c>
       <c r="N38" s="1">
-        <v>69.930000000000007</v>
+        <v>70.75</v>
       </c>
       <c r="O38" s="1">
-        <v>58.63</v>
+        <v>58.89</v>
       </c>
       <c r="P38" s="4">
-        <v>67.92</v>
+        <v>62.97</v>
       </c>
       <c r="Q38" s="1">
-        <v>15.04</v>
+        <v>24.64</v>
       </c>
       <c r="R38" s="1">
-        <v>54.29</v>
+        <v>56.94</v>
       </c>
       <c r="S38" s="1">
-        <v>49.21</v>
+        <v>52.5</v>
       </c>
       <c r="T38" s="4">
-        <v>52.96</v>
-      </c>
-      <c r="U38" s="1">
-        <v>15.27</v>
+        <v>53.27</v>
+      </c>
+      <c r="U38">
+        <v>17.88</v>
       </c>
       <c r="V38" s="1">
-        <v>70.42</v>
+        <v>71.23</v>
       </c>
       <c r="W38" s="1">
-        <v>51.69</v>
+        <v>50.91</v>
       </c>
       <c r="X38" s="4">
-        <v>65.73</v>
+        <v>64.33</v>
       </c>
       <c r="Y38" s="2">
         <f>AVERAGE(I38:X38)</f>
-        <v>52.11</v>
+        <v>52.399374999999999</v>
       </c>
       <c r="Z38" s="2">
         <f>MEDIAN(I38:X38)</f>
-        <v>56.46</v>
+        <v>57.894999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="I39" s="1">
-        <v>36.18</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="J39" s="1">
-        <v>60.4</v>
+        <v>77.61</v>
       </c>
       <c r="K39" s="1">
-        <v>58.85</v>
+        <v>65.58</v>
       </c>
       <c r="L39" s="4">
-        <v>62.04</v>
+        <v>70.75</v>
       </c>
       <c r="M39" s="1">
-        <v>36.61</v>
+        <v>21.04</v>
       </c>
       <c r="N39" s="1">
-        <v>70.75</v>
+        <v>69.12</v>
       </c>
       <c r="O39" s="1">
-        <v>58.89</v>
+        <v>57.08</v>
       </c>
       <c r="P39" s="4">
-        <v>62.97</v>
+        <v>51.54</v>
       </c>
       <c r="Q39" s="1">
-        <v>24.64</v>
+        <v>24.37</v>
       </c>
       <c r="R39" s="1">
-        <v>56.94</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="S39" s="1">
-        <v>52.5</v>
+        <v>59.14</v>
       </c>
       <c r="T39" s="4">
-        <v>53.27</v>
+        <v>61.2</v>
       </c>
       <c r="U39">
-        <v>17.88</v>
+        <v>20.97</v>
       </c>
       <c r="V39" s="1">
-        <v>71.23</v>
+        <v>61.07</v>
       </c>
       <c r="W39" s="1">
-        <v>50.91</v>
+        <v>50.92</v>
       </c>
       <c r="X39" s="4">
-        <v>64.33</v>
+        <v>55.67</v>
       </c>
       <c r="Y39" s="2">
         <f>AVERAGE(I39:X39)</f>
-        <v>52.399374999999999</v>
+        <v>52.853125000000006</v>
       </c>
       <c r="Z39" s="2">
         <f>MEDIAN(I39:X39)</f>
-        <v>57.894999999999996</v>
+        <v>58.11</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="I40" s="1">
-        <v>35.299999999999997</v>
+        <v>29.88</v>
       </c>
       <c r="J40" s="1">
-        <v>77.61</v>
+        <v>60.61</v>
       </c>
       <c r="K40" s="1">
-        <v>65.58</v>
+        <v>54.01</v>
       </c>
       <c r="L40" s="4">
-        <v>70.75</v>
+        <v>55.88</v>
       </c>
       <c r="M40" s="1">
-        <v>21.04</v>
+        <v>37.31</v>
       </c>
       <c r="N40" s="1">
-        <v>69.12</v>
+        <v>62.42</v>
       </c>
       <c r="O40" s="1">
-        <v>57.08</v>
+        <v>57.29</v>
       </c>
       <c r="P40" s="4">
-        <v>51.54</v>
+        <v>53.96</v>
       </c>
       <c r="Q40" s="1">
-        <v>24.37</v>
+        <v>62.62</v>
       </c>
       <c r="R40" s="1">
-        <v>64.290000000000006</v>
+        <v>82.35</v>
       </c>
       <c r="S40" s="1">
-        <v>59.14</v>
+        <v>78.52</v>
       </c>
       <c r="T40" s="4">
-        <v>61.2</v>
+        <v>80.92</v>
       </c>
       <c r="U40">
-        <v>20.97</v>
+        <v>20.69</v>
       </c>
       <c r="V40" s="1">
-        <v>61.07</v>
+        <v>55.9</v>
       </c>
       <c r="W40" s="1">
-        <v>50.92</v>
+        <v>43.19</v>
       </c>
       <c r="X40" s="4">
-        <v>55.67</v>
+        <v>50.29</v>
       </c>
       <c r="Y40" s="2">
         <f>AVERAGE(I40:X40)</f>
-        <v>52.853125000000006</v>
+        <v>55.364999999999995</v>
       </c>
       <c r="Z40" s="2">
         <f>MEDIAN(I40:X40)</f>
-        <v>58.11</v>
+        <v>55.89</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I41" s="1">
-        <v>29.88</v>
+        <v>46.29</v>
       </c>
       <c r="J41" s="1">
-        <v>60.61</v>
+        <v>72.73</v>
       </c>
       <c r="K41" s="1">
-        <v>54.01</v>
+        <v>63.87</v>
       </c>
       <c r="L41" s="4">
-        <v>55.88</v>
+        <v>68.040000000000006</v>
       </c>
       <c r="M41" s="1">
-        <v>37.31</v>
+        <v>41.11</v>
       </c>
       <c r="N41" s="1">
-        <v>62.42</v>
+        <v>72.62</v>
       </c>
       <c r="O41" s="1">
-        <v>57.29</v>
+        <v>61.22</v>
       </c>
       <c r="P41" s="4">
-        <v>53.96</v>
+        <v>61.29</v>
       </c>
       <c r="Q41" s="1">
-        <v>62.62</v>
+        <v>32.69</v>
       </c>
       <c r="R41" s="1">
-        <v>82.35</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="S41" s="1">
-        <v>78.52</v>
+        <v>50.14</v>
       </c>
       <c r="T41" s="4">
-        <v>80.92</v>
+        <v>56.9</v>
       </c>
       <c r="U41">
-        <v>20.69</v>
+        <v>28.77</v>
       </c>
       <c r="V41" s="1">
-        <v>55.9</v>
+        <v>65.12</v>
       </c>
       <c r="W41" s="1">
-        <v>43.19</v>
+        <v>50.15</v>
       </c>
       <c r="X41" s="4">
-        <v>50.29</v>
+        <v>52.91</v>
       </c>
       <c r="Y41" s="2">
         <f>AVERAGE(I41:X41)</f>
-        <v>55.364999999999995</v>
+        <v>55.606249999999996</v>
       </c>
       <c r="Z41" s="2">
         <f>MEDIAN(I41:X41)</f>
-        <v>55.89</v>
+        <v>59.06</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>116</v>
@@ -6039,7 +6384,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>76</v>
@@ -6121,7 +6466,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>118</v>
@@ -6203,7 +6548,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>30</v>
@@ -6285,7 +6630,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>87</v>
@@ -6367,7 +6712,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>96</v>
@@ -6449,7 +6794,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>94</v>
@@ -6531,28 +6876,28 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="E49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I49" s="1">
         <v>35.619999999999997</v>
@@ -6613,7 +6958,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>109</v>
@@ -6697,19 +7042,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z50">
     <sortCondition ref="Y2:Y50"/>
   </sortState>
-  <conditionalFormatting sqref="I2:X50">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="I2:Z50">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
-      <formula>30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Z50">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6718,6 +7055,510 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CEE29-79A6-4357-AD9A-5F12C04660C0}">
+  <dimension ref="A1:Y33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="15"/>
+    <col min="2" max="2" width="18.453125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.7265625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="11">
+        <v>6.85</v>
+      </c>
+      <c r="I2" s="11">
+        <v>29.13</v>
+      </c>
+      <c r="J2" s="11">
+        <v>46.24</v>
+      </c>
+      <c r="K2" s="11">
+        <v>34.51</v>
+      </c>
+      <c r="L2" s="11">
+        <v>7.57</v>
+      </c>
+      <c r="M2" s="11">
+        <v>30.8</v>
+      </c>
+      <c r="N2" s="11">
+        <v>47.62</v>
+      </c>
+      <c r="O2" s="11">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="P2" s="11">
+        <v>5.73</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>29.51</v>
+      </c>
+      <c r="R2" s="11">
+        <v>47.06</v>
+      </c>
+      <c r="S2" s="11">
+        <v>36.65</v>
+      </c>
+      <c r="T2" s="11">
+        <v>3.68</v>
+      </c>
+      <c r="U2" s="11">
+        <v>25.3</v>
+      </c>
+      <c r="V2" s="11">
+        <v>43.35</v>
+      </c>
+      <c r="W2" s="11">
+        <v>32.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="17" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+    </row>
+    <row r="16" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+      <c r="B18" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19"/>
+      <c r="B21" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+    </row>
+    <row r="22" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19"/>
+      <c r="B22" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19"/>
+      <c r="B23" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+      <c r="B25" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19"/>
+      <c r="B27" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+    </row>
+    <row r="28" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19"/>
+      <c r="B28" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29" s="19"/>
+      <c r="B29" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30" s="19"/>
+      <c r="B30" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31" s="19"/>
+      <c r="B31" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+      <c r="B32" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
+      <c r="B33" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99193759-7BDC-4968-82E4-6A50ED117898}">
   <dimension ref="A1:S32"/>
   <sheetViews>
@@ -6782,7 +7623,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="8">
         <v>28.744102564102558</v>
@@ -6837,7 +7678,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="8">
         <v>19.103000000000002</v>
@@ -6911,21 +7752,21 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" t="s">
         <v>243</v>
-      </c>
-      <c r="E5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="6">
         <v>48.072448979591812</v>
@@ -6942,7 +7783,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="6">
         <v>49.68416666666667</v>
@@ -6959,7 +7800,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="6">
         <v>52.002499999999991</v>
@@ -6976,7 +7817,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9">
         <v>50.884615384615394</v>
@@ -6993,7 +7834,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10">
         <v>46.165384615384625</v>
@@ -7010,7 +7851,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="6">
         <v>41.786749999999998</v>
@@ -7027,17 +7868,17 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32">
         <f>AVERAGE('Nicht-Bibeltexte'!N2:Q11)</f>
@@ -7049,7 +7890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC092C5F-FBD9-4BFD-828D-A10C08858004}">
   <dimension ref="A1:S12"/>
   <sheetViews>
@@ -7117,10 +7958,10 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" t="s">
         <v>236</v>
-      </c>
-      <c r="S1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -7801,10 +8642,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Q11">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7812,12 +8653,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4DEAD6-4928-4D4A-B3A4-267F3DD0F48E}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:S41"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7878,10 +8719,10 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" t="s">
         <v>236</v>
-      </c>
-      <c r="S1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -9716,68 +10557,68 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="B32" s="1">
-        <v>1.83</v>
+        <v>46.29</v>
       </c>
       <c r="C32" s="1">
-        <v>18.059999999999999</v>
+        <v>72.73</v>
       </c>
       <c r="D32" s="1">
-        <v>27.56</v>
+        <v>63.87</v>
       </c>
       <c r="E32" s="4">
-        <v>21.45</v>
+        <v>68.040000000000006</v>
       </c>
       <c r="F32" s="1">
-        <v>1.81</v>
+        <v>41.11</v>
       </c>
       <c r="G32" s="1">
-        <v>16.18</v>
+        <v>72.62</v>
       </c>
       <c r="H32" s="1">
-        <v>27.06</v>
+        <v>61.22</v>
       </c>
       <c r="I32" s="4">
-        <v>20.3</v>
+        <v>61.29</v>
       </c>
       <c r="J32" s="1">
-        <v>2.0299999999999998</v>
+        <v>32.69</v>
       </c>
       <c r="K32" s="1">
-        <v>16.670000000000002</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="L32" s="1">
-        <v>26.47</v>
+        <v>50.14</v>
       </c>
       <c r="M32" s="4">
-        <v>18.13</v>
+        <v>56.9</v>
       </c>
       <c r="N32">
-        <v>1.48</v>
+        <v>28.77</v>
       </c>
       <c r="O32" s="1">
-        <v>17.14</v>
+        <v>65.12</v>
       </c>
       <c r="P32" s="1">
-        <v>26.25</v>
+        <v>50.15</v>
       </c>
       <c r="Q32" s="4">
-        <v>22.32</v>
+        <v>52.91</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="0"/>
-        <v>16.546250000000001</v>
+        <v>55.606249999999996</v>
       </c>
       <c r="S32" s="2">
         <f t="shared" si="1"/>
-        <v>18.094999999999999</v>
+        <v>59.06</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" s="1">
         <v>35.619999999999997</v>
@@ -9838,7 +10679,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="1">
         <v>29.88</v>
@@ -9899,68 +10740,68 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B35" s="1">
-        <v>3.06</v>
+        <v>28.94</v>
       </c>
       <c r="C35" s="1">
-        <v>14.13</v>
+        <v>61.54</v>
       </c>
       <c r="D35" s="1">
-        <v>27.66</v>
+        <v>54.35</v>
       </c>
       <c r="E35" s="4">
-        <v>16.559999999999999</v>
+        <v>52.32</v>
       </c>
       <c r="F35" s="1">
-        <v>1.94</v>
+        <v>24.68</v>
       </c>
       <c r="G35" s="1">
-        <v>14.44</v>
+        <v>59.55</v>
       </c>
       <c r="H35" s="1">
-        <v>26.9</v>
+        <v>49.77</v>
       </c>
       <c r="I35" s="4">
-        <v>15.28</v>
+        <v>53.51</v>
       </c>
       <c r="J35" s="1">
-        <v>2.79</v>
+        <v>27.25</v>
       </c>
       <c r="K35" s="1">
-        <v>11.76</v>
+        <v>58.38</v>
       </c>
       <c r="L35" s="1">
-        <v>27.75</v>
+        <v>50.93</v>
       </c>
       <c r="M35" s="4">
-        <v>16.04</v>
+        <v>49.59</v>
       </c>
       <c r="N35">
-        <v>1.65</v>
+        <v>20.25</v>
       </c>
       <c r="O35" s="1">
-        <v>13.02</v>
+        <v>50.3</v>
       </c>
       <c r="P35" s="1">
-        <v>23.75</v>
+        <v>43.46</v>
       </c>
       <c r="Q35" s="4">
-        <v>14.89</v>
+        <v>41.69</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="0"/>
-        <v>14.47625</v>
+        <v>45.406874999999999</v>
       </c>
       <c r="S35" s="2">
         <f t="shared" si="1"/>
-        <v>14.664999999999999</v>
+        <v>50.034999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="1">
         <v>21.1</v>
@@ -10021,7 +10862,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B37" s="1">
         <v>16.62</v>
@@ -10082,7 +10923,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B38" s="1">
         <v>36.26</v>
@@ -10143,7 +10984,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B39" s="1">
         <v>37.24</v>
@@ -10204,7 +11045,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="1">
         <v>17.59</v>
@@ -10266,75 +11107,91 @@
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B41">
         <f>AVERAGE(B2:B40)</f>
-        <v>28.744102564102558</v>
+        <v>30.547692307692298</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:Q41" si="2">AVERAGE(C2:C40)</f>
-        <v>58.267948717948727</v>
+        <v>60.885384615384623</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>54.443589743589733</v>
+        <v>56.058974358974353</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>57.281025641025657</v>
+        <v>59.392564102564116</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
-        <v>26.978461538461541</v>
+        <v>28.569230769230764</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>57.437179487179492</v>
+        <v>60.041025641025641</v>
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>53.353846153846149</v>
+        <v>54.816153846153846</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>53.357948717948716</v>
+        <v>55.389230769230778</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>27.219743589743587</v>
+        <v>28.633076923076917</v>
       </c>
       <c r="K41">
         <f t="shared" si="2"/>
-        <v>56.539487179487182</v>
+        <v>58.995897435897426</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
-        <v>52.713333333333317</v>
+        <v>53.914615384615374</v>
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
-        <v>54.710512820512832</v>
+        <v>56.564871794871799</v>
       </c>
       <c r="N41">
         <f t="shared" si="2"/>
-        <v>18.680256410256412</v>
+        <v>19.856923076923078</v>
       </c>
       <c r="O41">
         <f t="shared" si="2"/>
-        <v>51.916410256410266</v>
+        <v>54.102564102564116</v>
       </c>
       <c r="P41">
         <f t="shared" si="2"/>
-        <v>46.054358974358983</v>
+        <v>47.172564102564117</v>
       </c>
       <c r="Q41">
         <f t="shared" si="2"/>
-        <v>47.516666666666666</v>
+        <v>48.988205128205131</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q40">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B2:Q31 B36:Q40 B33:Q34">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:Q35">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:Q32">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10342,12 +11199,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CFA631-747C-4386-B527-4BE402C961ED}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10408,10 +11265,10 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" t="s">
         <v>236</v>
-      </c>
-      <c r="S1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -11026,129 +11883,129 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="B12" s="1">
-        <v>1.83</v>
+        <v>46.29</v>
       </c>
       <c r="C12" s="1">
-        <v>18.059999999999999</v>
+        <v>72.73</v>
       </c>
       <c r="D12" s="1">
-        <v>27.56</v>
+        <v>63.87</v>
       </c>
       <c r="E12" s="4">
-        <v>21.45</v>
+        <v>68.040000000000006</v>
       </c>
       <c r="F12" s="1">
-        <v>1.81</v>
+        <v>41.11</v>
       </c>
       <c r="G12" s="1">
-        <v>16.18</v>
+        <v>72.62</v>
       </c>
       <c r="H12" s="1">
-        <v>27.06</v>
+        <v>61.22</v>
       </c>
       <c r="I12" s="4">
-        <v>20.3</v>
+        <v>61.29</v>
       </c>
       <c r="J12" s="1">
-        <v>2.0299999999999998</v>
+        <v>32.69</v>
       </c>
       <c r="K12" s="1">
-        <v>16.670000000000002</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="L12" s="1">
-        <v>26.47</v>
+        <v>50.14</v>
       </c>
       <c r="M12" s="4">
-        <v>18.13</v>
+        <v>56.9</v>
       </c>
       <c r="N12">
-        <v>1.48</v>
+        <v>28.77</v>
       </c>
       <c r="O12" s="1">
-        <v>17.14</v>
+        <v>65.12</v>
       </c>
       <c r="P12" s="1">
-        <v>26.25</v>
+        <v>50.15</v>
       </c>
       <c r="Q12" s="4">
-        <v>22.32</v>
+        <v>52.91</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="0"/>
-        <v>16.546250000000001</v>
+        <v>55.606249999999996</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" si="1"/>
-        <v>18.094999999999999</v>
+        <v>59.06</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" s="1">
-        <v>3.06</v>
+        <v>28.94</v>
       </c>
       <c r="C13" s="1">
-        <v>14.13</v>
+        <v>61.54</v>
       </c>
       <c r="D13" s="1">
-        <v>27.66</v>
+        <v>54.35</v>
       </c>
       <c r="E13" s="4">
-        <v>16.559999999999999</v>
+        <v>52.32</v>
       </c>
       <c r="F13" s="1">
-        <v>1.94</v>
+        <v>24.68</v>
       </c>
       <c r="G13" s="1">
-        <v>14.44</v>
+        <v>59.55</v>
       </c>
       <c r="H13" s="1">
-        <v>26.9</v>
+        <v>49.77</v>
       </c>
       <c r="I13" s="4">
-        <v>15.28</v>
+        <v>53.51</v>
       </c>
       <c r="J13" s="1">
-        <v>2.79</v>
+        <v>27.25</v>
       </c>
       <c r="K13" s="1">
-        <v>11.76</v>
+        <v>58.38</v>
       </c>
       <c r="L13" s="1">
-        <v>27.75</v>
+        <v>50.93</v>
       </c>
       <c r="M13" s="4">
-        <v>16.04</v>
+        <v>49.59</v>
       </c>
       <c r="N13">
-        <v>1.65</v>
+        <v>20.25</v>
       </c>
       <c r="O13" s="1">
-        <v>13.02</v>
+        <v>50.3</v>
       </c>
       <c r="P13" s="1">
-        <v>23.75</v>
+        <v>43.46</v>
       </c>
       <c r="Q13" s="4">
-        <v>14.89</v>
+        <v>41.69</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="0"/>
-        <v>14.47625</v>
+        <v>45.406874999999999</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" si="1"/>
-        <v>14.664999999999999</v>
+        <v>50.034999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" s="1">
         <v>36.26</v>
@@ -11210,71 +12067,87 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15">
         <f t="shared" ref="B15:Q15" si="2">AVERAGE(B2:B14)</f>
-        <v>32.010769230769235</v>
+        <v>37.421538461538468</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
-        <v>60.100769230769217</v>
+        <v>67.953076923076907</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>56.798461538461531</v>
+        <v>61.644615384615392</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>59.099999999999994</v>
+        <v>65.434615384615384</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>31.210769230769227</v>
+        <v>35.983076923076922</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>60.699230769230766</v>
+        <v>68.510769230769228</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>56.53153846153846</v>
+        <v>60.918461538461543</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>56.913846153846151</v>
+        <v>63.007692307692309</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>23.910000000000004</v>
+        <v>28.150000000000002</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>52.641538461538453</v>
+        <v>60.010769230769228</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>50.47461538461539</v>
+        <v>54.078461538461539</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>51.851538461538468</v>
+        <v>57.414615384615395</v>
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>20.36538461538462</v>
+        <v>23.895384615384618</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>53.816153846153853</v>
+        <v>60.374615384615396</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>48.20461538461538</v>
+        <v>51.559230769230766</v>
       </c>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>50.26307692307693</v>
+        <v>54.677692307692304</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Q14">
+  <conditionalFormatting sqref="B2:Q11 B14:Q14">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:Q13">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:Q12">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
@@ -11286,7 +12159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC107A1C-2B06-4FF1-B703-4E13A4DC0227}">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -11350,10 +12223,10 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" t="s">
         <v>236</v>
-      </c>
-      <c r="S1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -11968,7 +12841,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="1">
         <v>35.619999999999997</v>
@@ -12029,7 +12902,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="1">
         <v>21.1</v>
@@ -12090,7 +12963,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="1">
         <v>37.24</v>
@@ -12228,7 +13101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F45B94-ACE3-4A45-A654-268223ECF0D0}">
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -12294,10 +13167,10 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" t="s">
         <v>236</v>
-      </c>
-      <c r="S1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -12912,7 +13785,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="1">
         <v>29.88</v>
@@ -12973,7 +13846,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="1">
         <v>16.62</v>
@@ -13034,7 +13907,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="1">
         <v>17.59</v>
